--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99212CDF-EEBE-4481-A0B1-12ADA2627AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF55C4B-FD96-455E-9D94-9E6AF7C6136D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="151">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -79,9 +79,6 @@
     <t>ENVIRONMENT_AT_REMOVAL</t>
   </si>
   <si>
-    <t>PRIMARY_REASON_FOR_REASON</t>
-  </si>
-  <si>
     <t>Exploitation</t>
   </si>
   <si>
@@ -494,6 +491,12 @@
   </si>
   <si>
     <t>ELIGIBILITY_TAB</t>
+  </si>
+  <si>
+    <t>PRIMARY_REASON</t>
+  </si>
+  <si>
+    <t>County Agency/Staff Worker</t>
   </si>
 </sst>
 </file>
@@ -876,7 +879,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,16 +910,16 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -954,10 +957,13 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
+      <c r="K3" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -967,15 +973,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,65 +995,68 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1060,41 +1069,41 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Q2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1111,39 +1120,41 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="L3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -1151,6 +1162,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1178,37 +1190,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -1228,19 +1240,19 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -1269,19 +1281,19 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" s="3"/>
     </row>
@@ -1340,106 +1352,106 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -1470,35 +1482,35 @@
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
@@ -1510,13 +1522,13 @@
         <v>5</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -1571,70 +1583,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="Y1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
@@ -1654,43 +1666,43 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
         <v>109</v>
       </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>110</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>111</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>112</v>
-      </c>
-      <c r="R2" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600B222-099D-4F40-B9EF-3F40538576D0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
@@ -1817,7 +1829,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1833,16 +1845,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -1916,106 +1928,106 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.35">

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF55C4B-FD96-455E-9D94-9E6AF7C6136D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568C52A-D5CC-454B-B90C-3CD0CD5EABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="160">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -497,6 +497,33 @@
   </si>
   <si>
     <t>County Agency/Staff Worker</t>
+  </si>
+  <si>
+    <t>CLO_ID1</t>
+  </si>
+  <si>
+    <t>CHILD_LOCATION_ID</t>
+  </si>
+  <si>
+    <t>DETAILS_ID</t>
+  </si>
+  <si>
+    <t>DETAILS_RECORD</t>
+  </si>
+  <si>
+    <t>EXEMPTION_ID</t>
+  </si>
+  <si>
+    <t>EXEMPTION_RECORD</t>
+  </si>
+  <si>
+    <t>FOL_14DayExemptionID</t>
+  </si>
+  <si>
+    <t>FOL_14DayNoticeID</t>
+  </si>
+  <si>
+    <t>CONTACT_LOG_TAB</t>
   </si>
 </sst>
 </file>
@@ -973,15 +1000,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,26 +1064,29 @@
         <v>27</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1103,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1156,13 +1186,18 @@
         <v>5</v>
       </c>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1171,15 +1206,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,8 +1257,23 @@
       <c r="N1" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1291,11 +1341,25 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="M3" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N3" s="3"/>
+      <c r="P3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1906,15 +1970,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,112 +1989,115 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2040,11 +2107,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2055,6 +2122,9 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2064,6 +2134,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB6316A5099234ABAF38307C2E58DEB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87316ca0d647f3b1225f36e289a3d896">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60f4fc0e-4376-443b-9113-f11ee5b2b38a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7efb5893f41ea89f12dc9c111325a490" ns3:_="">
     <xsd:import namespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
@@ -2243,24 +2330,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5344EE99-1643-4771-92DD-8E498C06ACE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2276,28 +2370,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568C52A-D5CC-454B-B90C-3CD0CD5EABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A5D07-ED77-4BB1-B995-08CB56EE297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="166">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -524,6 +524,24 @@
   </si>
   <si>
     <t>CONTACT_LOG_TAB</t>
+  </si>
+  <si>
+    <t>PERSON_PRESENT_AT_THE_HOME</t>
+  </si>
+  <si>
+    <t>SECONDARY_REASON_FOR_REMOVAL</t>
+  </si>
+  <si>
+    <t>PERSON_WHO_LIVED</t>
+  </si>
+  <si>
+    <t>CHILD_CIRCUMSTANCES</t>
+  </si>
+  <si>
+    <t>FAMILY_CIRCUMSTANCES</t>
+  </si>
+  <si>
+    <t>folioPersonName1</t>
   </si>
 </sst>
 </file>
@@ -903,18 +921,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,22 +952,34 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>160</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -963,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -982,15 +1012,29 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>165</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>150</v>
+        <v>40</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1208,7 +1252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -1893,7 +1937,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A5D07-ED77-4BB1-B995-08CB56EE297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C7341D-0476-4036-B52D-9C182817BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="166">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -921,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,7 +932,7 @@
     <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,8 +978,11 @@
       <c r="O1" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -993,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1035,6 +1038,12 @@
       </c>
       <c r="N3" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C7341D-0476-4036-B52D-9C182817BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4EA26B-9B4C-4351-ACAA-E325CB14CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
     <sheet name="FolioChildLocations" sheetId="2" r:id="rId2"/>
     <sheet name="ChildLocationCorrespondences" sheetId="3" r:id="rId3"/>
     <sheet name="FolioChildLocationAbsences" sheetId="4" r:id="rId4"/>
-    <sheet name="PlacementPreservationStrategy" sheetId="5" r:id="rId5"/>
-    <sheet name="OverstayReportDetails" sheetId="6" r:id="rId6"/>
-    <sheet name="OverstayReportSubmission" sheetId="7" r:id="rId7"/>
-    <sheet name="FolioPlacement" sheetId="8" r:id="rId8"/>
-    <sheet name="FolioChildLocationContactLogs" sheetId="9" r:id="rId9"/>
+    <sheet name="ProviderOptions" sheetId="10" r:id="rId5"/>
+    <sheet name="PlacementPreservationStrategy" sheetId="5" r:id="rId6"/>
+    <sheet name="OverstayReportDetails" sheetId="6" r:id="rId7"/>
+    <sheet name="OverstayReportSubmission" sheetId="7" r:id="rId8"/>
+    <sheet name="FolioPlacement" sheetId="8" r:id="rId9"/>
+    <sheet name="FolioChildLocationContactLogs" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="179">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -542,6 +543,45 @@
   </si>
   <si>
     <t>folioPersonName1</t>
+  </si>
+  <si>
+    <t>PLACEMENT_SERVICE_PROVIDER_OPTIONS</t>
+  </si>
+  <si>
+    <t>PROVIDER_OPTIONS</t>
+  </si>
+  <si>
+    <t>SERVICE_OPTIONS</t>
+  </si>
+  <si>
+    <t>PROVIDER_OPTION_DETERMINATION_STATUS</t>
+  </si>
+  <si>
+    <t>NEW_ITEM_SERVICE_REQUEST</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR_LINK</t>
+  </si>
+  <si>
+    <t>PLACEMENT_OPTIONS_RECORD</t>
+  </si>
+  <si>
+    <t>EMERGENCY_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PLACEMENT_OPTION_DETERMINATION_STATUS</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>OTHER_REASON</t>
   </si>
 </sst>
 </file>
@@ -923,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -1043,6 +1083,171 @@
         <v>40</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
+  <dimension ref="A1:AM3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1261,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1392,8 +1597,12 @@
       <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="L3" s="3" t="s">
         <v>36</v>
       </c>
@@ -1425,7 +1634,7 @@
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1662,11 +1871,105 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5706C1-5A9E-4B94-81B0-EE6B0A13DFCC}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1827,12 +2130,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FBC1C-F30A-4BAA-A38E-16F005A3BA7E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1884,7 +2187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600B222-099D-4F40-B9EF-3F40538576D0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1941,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC15CB-BAAB-49FC-A297-07E6944C8717}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2015,171 +2318,6 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AM3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2195,15 +2333,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB6316A5099234ABAF38307C2E58DEB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87316ca0d647f3b1225f36e289a3d896">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60f4fc0e-4376-443b-9113-f11ee5b2b38a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7efb5893f41ea89f12dc9c111325a490" ns3:_="">
     <xsd:import namespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
@@ -2383,6 +2512,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
@@ -2400,14 +2538,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5344EE99-1643-4771-92DD-8E498C06ACE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2423,4 +2553,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4EA26B-9B4C-4351-ACAA-E325CB14CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C31282E-E66C-4749-81A4-D53440298617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="188">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -582,13 +582,40 @@
   </si>
   <si>
     <t>OTHER_REASON</t>
+  </si>
+  <si>
+    <t>CL_COLLATERAL_RB</t>
+  </si>
+  <si>
+    <t>CL_PLACEMENT_RB</t>
+  </si>
+  <si>
+    <t>Placement Stability</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>DESCRIBE_PLACEMENT_CONCERNS</t>
+  </si>
+  <si>
+    <t>randomText</t>
+  </si>
+  <si>
+    <t>personName2</t>
+  </si>
+  <si>
+    <t>personName1</t>
+  </si>
+  <si>
+    <t>CONTACT_END_DATETIME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +641,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -638,17 +673,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{C272ADE9-B900-4318-BCE8-016BB1455FC6}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1093,15 +1133,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="8.7265625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,109 +1161,121 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1249,6 +1304,63 @@
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1466,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -5,24 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\TestData5feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C31282E-E66C-4749-81A4-D53440298617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8CDEFD-1ECB-44B3-94EB-729414194651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
     <sheet name="FolioChildLocations" sheetId="2" r:id="rId2"/>
     <sheet name="ChildLocationCorrespondences" sheetId="3" r:id="rId3"/>
     <sheet name="FolioChildLocationAbsences" sheetId="4" r:id="rId4"/>
-    <sheet name="ProviderOptions" sheetId="10" r:id="rId5"/>
-    <sheet name="PlacementPreservationStrategy" sheetId="5" r:id="rId6"/>
-    <sheet name="OverstayReportDetails" sheetId="6" r:id="rId7"/>
-    <sheet name="OverstayReportSubmission" sheetId="7" r:id="rId8"/>
-    <sheet name="FolioPlacement" sheetId="8" r:id="rId9"/>
-    <sheet name="FolioChildLocationContactLogs" sheetId="9" r:id="rId10"/>
+    <sheet name="PlacementPreservationStrategy" sheetId="5" r:id="rId5"/>
+    <sheet name="OverstayReportDetails" sheetId="6" r:id="rId6"/>
+    <sheet name="OverstayReportSubmission" sheetId="7" r:id="rId7"/>
+    <sheet name="FolioPlacement" sheetId="8" r:id="rId8"/>
+    <sheet name="FolioChildLocationContactLogs" sheetId="9" r:id="rId9"/>
+    <sheet name="ProviderSearch" sheetId="10" r:id="rId10"/>
+    <sheet name="ProviderOptions" sheetId="11" r:id="rId11"/>
+    <sheet name="FolioTask" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="210">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -206,9 +208,6 @@
     <t>Court Ordered Placement</t>
   </si>
   <si>
-    <t>E-Mail</t>
-  </si>
-  <si>
     <t>RECIPIENT_STATUS</t>
   </si>
   <si>
@@ -545,25 +544,58 @@
     <t>folioPersonName1</t>
   </si>
   <si>
+    <t>testT4275</t>
+  </si>
+  <si>
+    <t>PROVIDER_SEARCH</t>
+  </si>
+  <si>
+    <t>PLACEMENT_OPTION_DETERMINEATION_STATUS</t>
+  </si>
+  <si>
+    <t>PLACEMENT_TYPE</t>
+  </si>
+  <si>
+    <t>PLACEMENT_PERSON</t>
+  </si>
+  <si>
+    <t>PLACEMENT_PHONE_NAME</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CAPACITY</t>
+  </si>
+  <si>
+    <t>SECONDARY_PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>PLACEMENT_EMAIL</t>
+  </si>
+  <si>
+    <t>ADDRESS_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SEARCH_BTN</t>
+  </si>
+  <si>
+    <t>123 1/2 1st Ave Nederland TX 77627</t>
+  </si>
+  <si>
+    <t>Group Home(GH)</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
     <t>PLACEMENT_SERVICE_PROVIDER_OPTIONS</t>
   </si>
   <si>
     <t>PROVIDER_OPTIONS</t>
   </si>
   <si>
-    <t>SERVICE_OPTIONS</t>
-  </si>
-  <si>
-    <t>PROVIDER_OPTION_DETERMINATION_STATUS</t>
-  </si>
-  <si>
-    <t>NEW_ITEM_SERVICE_REQUEST</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR_LINK</t>
+    <t>PROVIDER_OPTIONID</t>
+  </si>
+  <si>
+    <t>ProviderOption_ID1</t>
   </si>
   <si>
     <t>PLACEMENT_OPTIONS_RECORD</t>
@@ -575,47 +607,83 @@
     <t>PLACEMENT_OPTION_DETERMINATION_STATUS</t>
   </si>
   <si>
-    <t>WILL_PLACEMENT_PROCEED</t>
-  </si>
-  <si>
     <t>REASON</t>
   </si>
   <si>
     <t>OTHER_REASON</t>
   </si>
   <si>
+    <t>Home is unsafe</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED_NO_RB</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED_YES_RB</t>
+  </si>
+  <si>
+    <t>Open to Future Placement</t>
+  </si>
+  <si>
+    <t>Resource Family Home</t>
+  </si>
+  <si>
+    <t>Tribally Approved Home</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>DUE_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>ASSIGNED_TO</t>
+  </si>
+  <si>
+    <t>Informing notice</t>
+  </si>
+  <si>
+    <t>Mediun</t>
+  </si>
+  <si>
+    <t>CREATE_MANUAL</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NAME1</t>
+  </si>
+  <si>
+    <t>Placement Stability</t>
+  </si>
+  <si>
+    <t>folioPersonName2</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>randomText</t>
+  </si>
+  <si>
     <t>CL_COLLATERAL_RB</t>
   </si>
   <si>
     <t>CL_PLACEMENT_RB</t>
   </si>
   <si>
-    <t>Placement Stability</t>
-  </si>
-  <si>
-    <t>Text</t>
+    <t>CONTACT_END_DATETIME</t>
   </si>
   <si>
     <t>DESCRIBE_PLACEMENT_CONCERNS</t>
   </si>
   <si>
-    <t>randomText</t>
-  </si>
-  <si>
-    <t>personName2</t>
-  </si>
-  <si>
-    <t>personName1</t>
-  </si>
-  <si>
-    <t>CONTACT_END_DATETIME</t>
+    <t>Mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,15 +710,20 @@
       <family val="3"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,6 +733,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,22 +752,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{C272ADE9-B900-4318-BCE8-016BB1455FC6}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1004,7 +1084,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -1044,19 +1124,19 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>26</v>
@@ -1102,10 +1182,10 @@
         <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>40</v>
@@ -1132,19 +1212,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AQ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.6328125" customWidth="1"/>
+    <col min="8" max="8" width="42.81640625" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" customWidth="1"/>
+    <col min="10" max="10" width="19.90625" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" customWidth="1"/>
+    <col min="14" max="14" width="27.54296875" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="21.36328125" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="19" width="21.36328125" customWidth="1"/>
+    <col min="20" max="20" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,213 +1251,639 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>199</v>
+      </c>
+      <c r="V1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W1" t="s">
+        <v>173</v>
+      </c>
+      <c r="X1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="M2" s="5">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="M3" s="5">
+        <v>4</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" customWidth="1"/>
+    <col min="8" max="8" width="41.26953125" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" customWidth="1"/>
+    <col min="10" max="10" width="24.54296875" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="N1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBBE227-DCC5-48BC-8CD6-8D6686056BE6}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>40</v>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1370,13 +1893,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="15" max="15" width="16.1796875" customWidth="1"/>
+    <col min="16" max="16" width="16.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1392,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -1434,7 +1961,7 @@
         <v>27</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>28</v>
@@ -1529,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>35</v>
@@ -1557,7 +2084,7 @@
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>5</v>
@@ -1568,6 +2095,65 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1622,7 +2208,7 @@
         <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>26</v>
@@ -1631,16 +2217,16 @@
         <v>27</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -1704,32 +2290,28 @@
         <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" s="3"/>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q3" t="s">
         <v>5</v>
       </c>
       <c r="R3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S3" t="s">
         <v>5</v>
@@ -1746,7 +2328,7 @@
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1790,16 +2372,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -1808,64 +2390,64 @@
         <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>26</v>
@@ -1874,22 +2456,22 @@
         <v>27</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -1926,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>36</v>
@@ -1935,20 +2517,20 @@
         <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
@@ -1960,13 +2542,13 @@
         <v>5</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -1983,105 +2565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5706C1-5A9E-4B94-81B0-EE6B0A13DFCC}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2115,67 +2603,67 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
         <v>97</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>33</v>
@@ -2198,22 +2686,22 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
         <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
         <v>5</v>
@@ -2225,16 +2713,16 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" t="s">
         <v>109</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>111</v>
-      </c>
-      <c r="R2" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2242,12 +2730,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FBC1C-F30A-4BAA-A38E-16F005A3BA7E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2299,7 +2787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600B222-099D-4F40-B9EF-3F40538576D0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2356,7 +2844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC15CB-BAAB-49FC-A297-07E6944C8717}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2377,16 +2865,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -2430,6 +2918,240 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
+  <dimension ref="A1:AQ3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2437,11 +3159,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2625,26 +3348,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2668,9 +3382,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\TestData5feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8CDEFD-1ECB-44B3-94EB-729414194651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35134878-B24F-4B4D-AAA3-4250625814F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="212">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -677,6 +677,12 @@
   </si>
   <si>
     <t>Mail</t>
+  </si>
+  <si>
+    <t>ZIP_CODE</t>
+  </si>
+  <si>
+    <t>Boardman</t>
   </si>
 </sst>
 </file>
@@ -755,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -767,6 +773,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,12 +1243,12 @@
     <col min="14" max="14" width="27.54296875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
     <col min="16" max="16" width="21.36328125" customWidth="1"/>
-    <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="19" width="21.36328125" customWidth="1"/>
-    <col min="20" max="20" width="9.90625" customWidth="1"/>
+    <col min="17" max="19" width="31" customWidth="1"/>
+    <col min="20" max="21" width="21.36328125" customWidth="1"/>
+    <col min="22" max="22" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,28 +1301,34 @@
         <v>66</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>70</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>199</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>172</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>173</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>165</v>
       </c>
@@ -1367,26 +1380,26 @@
       <c r="Q2" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="T2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="U2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="V2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="Y2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>165</v>
       </c>
@@ -1438,26 +1451,26 @@
       <c r="Q3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="T3" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="U3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="V3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="Y3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>165</v>
       </c>
@@ -1509,26 +1522,26 @@
       <c r="Q4" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="T4" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="U4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="V4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="Y4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1578,13 +1591,13 @@
         <v>40</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>5</v>
+        <v>85</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="S5" s="11">
+        <v>97818</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>5</v>
@@ -1593,12 +1606,18 @@
         <v>5</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1895,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2164,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3159,15 +3178,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB6316A5099234ABAF38307C2E58DEB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87316ca0d647f3b1225f36e289a3d896">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60f4fc0e-4376-443b-9113-f11ee5b2b38a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7efb5893f41ea89f12dc9c111325a490" ns3:_="">
     <xsd:import namespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
@@ -3347,6 +3357,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3356,14 +3375,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5344EE99-1643-4771-92DD-8E498C06ACE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3377,6 +3388,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\TestData5feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35134878-B24F-4B4D-AAA3-4250625814F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D886EAAF-BF24-4125-903C-555E73B9EE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="213">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>Boardman</t>
+  </si>
+  <si>
+    <t>NEW_CONTACT_LOG</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -773,6 +776,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,7 +1096,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1222,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -1593,10 +1598,10 @@
       <c r="Q5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="13">
         <v>97818</v>
       </c>
       <c r="T5" s="3" t="s">
@@ -1914,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2184,7 +2189,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2314,8 +2319,12 @@
       <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="L3" s="3" t="s">
         <v>36</v>
       </c>
@@ -2945,15 +2954,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="8.7265625" style="11"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2969,122 +2981,125 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3098,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3114,42 +3129,42 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="K3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="R3" s="3" t="s">
         <v>40</v>
       </c>
@@ -3160,15 +3175,18 @@
         <v>40</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W3" s="3" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\TestData5feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata6feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D886EAAF-BF24-4125-903C-555E73B9EE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DFAD3C-0BF3-4874-BD7C-C2FD57779869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="ProviderSearch" sheetId="10" r:id="rId10"/>
     <sheet name="ProviderOptions" sheetId="11" r:id="rId11"/>
     <sheet name="FolioTask" sheetId="13" r:id="rId12"/>
+    <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId13"/>
+    <sheet name="FolioBackgroundChecks" sheetId="15" r:id="rId14"/>
+    <sheet name="PlacementStability" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="251">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -683,6 +686,120 @@
   </si>
   <si>
     <t>Boardman</t>
+  </si>
+  <si>
+    <t>RECORD_ALERT_AND_TASK</t>
+  </si>
+  <si>
+    <t>DATA_CORRECTION_RECORD</t>
+  </si>
+  <si>
+    <t>AutoRFA ClericalWorker Ccosta</t>
+  </si>
+  <si>
+    <t>BACKGROUND_CHECKS_TAB</t>
+  </si>
+  <si>
+    <t>BACKGROUND_ENTITY</t>
+  </si>
+  <si>
+    <t>PERSON_NAME</t>
+  </si>
+  <si>
+    <t>REQUESTED_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>BACKGROUND_CHECK_TYPE</t>
+  </si>
+  <si>
+    <t>REQUESTED_MANAGER</t>
+  </si>
+  <si>
+    <t>Tribe/Tribal Agency</t>
+  </si>
+  <si>
+    <t>CACI</t>
+  </si>
+  <si>
+    <t>AutoCase4201 worker 4201</t>
+  </si>
+  <si>
+    <t>testT4277</t>
+  </si>
+  <si>
+    <t>ASSOCIATE</t>
+  </si>
+  <si>
+    <t>Option Willing to Accept</t>
+  </si>
+  <si>
+    <t>Short-Term Residential Therapeutic Program (STRTP)</t>
+  </si>
+  <si>
+    <t>TASK_TAB</t>
+  </si>
+  <si>
+    <t>VERIFY_TASK</t>
+  </si>
+  <si>
+    <t>DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED</t>
+  </si>
+  <si>
+    <t>Caretaker Absence/Incapacity</t>
+  </si>
+  <si>
+    <t>Justice facility</t>
+  </si>
+  <si>
+    <t>QIAPPROVESSTRTPPLACEMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>QIASSESSMENTDETERMINATIONDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCAPPROVALSTATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCOPTIONALNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>DIRECTORNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>DIRECTORAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>COURTAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Juvenile Hall</t>
+  </si>
+  <si>
+    <t>CMSUPERVISORCONTRACOSTA</t>
+  </si>
+  <si>
+    <t>PLACEMENT_STABILITY_TAB</t>
+  </si>
+  <si>
+    <t>SHOW_ACTIONS</t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>PLACEMENT_RISK</t>
+  </si>
+  <si>
+    <t>STEPS_TAKEN_VERIFY</t>
+  </si>
+  <si>
+    <t>DESCRIBE_PLACEMENT_VERIFY</t>
   </si>
   <si>
     <t>NEW_CONTACT_LOG</t>
@@ -732,7 +849,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +865,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,9 +905,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1093,15 +1222,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -1215,6 +1351,106 @@
         <v>40</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1225,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1238,22 +1474,22 @@
     <col min="3" max="3" width="14.90625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.6328125" customWidth="1"/>
-    <col min="8" max="8" width="42.81640625" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="19.54296875" customWidth="1"/>
-    <col min="14" max="14" width="27.54296875" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="21.36328125" customWidth="1"/>
-    <col min="17" max="19" width="31" customWidth="1"/>
-    <col min="20" max="21" width="21.36328125" customWidth="1"/>
-    <col min="22" max="22" width="9.90625" customWidth="1"/>
+    <col min="6" max="8" width="22.6328125" customWidth="1"/>
+    <col min="9" max="9" width="42.81640625" customWidth="1"/>
+    <col min="10" max="10" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" customWidth="1"/>
+    <col min="13" max="13" width="23.7265625" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" customWidth="1"/>
+    <col min="15" max="15" width="27.54296875" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="21.36328125" customWidth="1"/>
+    <col min="18" max="20" width="31" customWidth="1"/>
+    <col min="21" max="22" width="21.36328125" customWidth="1"/>
+    <col min="23" max="23" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,64 +1512,67 @@
         <v>175</v>
       </c>
       <c r="H1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>168</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>170</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>171</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>172</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>173</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>66</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>67</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>210</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>69</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>70</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>199</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>172</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>173</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>165</v>
       </c>
@@ -1356,26 +1595,26 @@
         <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>4</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="O2" s="5" t="s">
         <v>40</v>
       </c>
@@ -1383,19 +1622,19 @@
         <v>40</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="U2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>40</v>
+      <c r="W2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>40</v>
@@ -1403,8 +1642,11 @@
       <c r="Z2" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AA2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>165</v>
       </c>
@@ -1427,26 +1669,26 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>4</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="O3" s="5" t="s">
         <v>40</v>
       </c>
@@ -1454,19 +1696,19 @@
         <v>40</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="U3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>40</v>
+      <c r="W3" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>40</v>
@@ -1474,8 +1716,11 @@
       <c r="Z3" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AA3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>165</v>
       </c>
@@ -1498,26 +1743,26 @@
         <v>5</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="5">
         <v>1234567890</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>4</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="O4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1525,19 +1770,19 @@
         <v>40</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="U4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>40</v>
+      <c r="W4" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>40</v>
@@ -1545,8 +1790,11 @@
       <c r="Z4" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AA4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1568,27 +1816,27 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="3">
         <v>1234567890</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>4</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="O5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1596,17 +1844,17 @@
         <v>40</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="S5" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="S5" s="13">
+      <c r="T5" s="11">
         <v>97818</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1617,12 +1865,98 @@
         <v>5</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1234512345</v>
+      </c>
+      <c r="N6" s="12">
+        <v>10</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="T6" s="12">
+        <v>97818</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1634,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1650,12 +1984,16 @@
     <col min="8" max="8" width="41.26953125" customWidth="1"/>
     <col min="9" max="9" width="32.26953125" customWidth="1"/>
     <col min="10" max="10" width="24.54296875" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" customWidth="1"/>
+    <col min="11" max="11" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="15" max="15" width="18.26953125" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1675,31 +2013,46 @@
         <v>183</v>
       </c>
       <c r="G1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" t="s">
         <v>184</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>185</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>189</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>190</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" t="s">
         <v>186</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>187</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="Q1" t="s">
+        <v>228</v>
+      </c>
+      <c r="R1" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>165</v>
       </c>
@@ -1719,27 +2072,44 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="Q2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>165</v>
       </c>
@@ -1761,60 +2131,181 @@
       <c r="G3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>40</v>
+      <c r="O5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +2317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBBE227-DCC5-48BC-8CD6-8D6686056BE6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1915,21 +2406,259 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8FE77-C3BE-4FCC-BDC3-CBFF12CA4394}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CE0F8-01F6-451D-9145-49AB2539A028}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
     <col min="16" max="16" width="16.81640625" customWidth="1"/>
+    <col min="21" max="21" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2005,9 +2734,32 @@
       <c r="Y1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2054,7 +2806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2120,7 +2872,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>165</v>
       </c>
@@ -2177,6 +2929,107 @@
       </c>
       <c r="T4" s="5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2188,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2292,46 +3145,46 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="11"/>
       <c r="P3" t="s">
         <v>157</v>
       </c>
@@ -2353,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C6705-F9CD-40A5-ACAC-D4A7573D562F}">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2587,6 +3440,148 @@
       </c>
       <c r="AE2" s="1"/>
     </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3">
+        <v>28570</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4">
+        <v>28570</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2594,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2620,7 +3615,7 @@
     <col min="18" max="18" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2675,29 +3670,32 @@
       <c r="R1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2751,6 +3749,65 @@
       </c>
       <c r="R2" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S3" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2956,14 +4013,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="8.7265625" style="11"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2981,8 +4035,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>212</v>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>205</v>
@@ -3114,46 +4168,46 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="K3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="O3" s="10" t="s">
@@ -3162,31 +4216,31 @@
       <c r="P3" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="3" t="s">
+      <c r="R3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="W3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3196,25 +4250,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB6316A5099234ABAF38307C2E58DEB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87316ca0d647f3b1225f36e289a3d896">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60f4fc0e-4376-443b-9113-f11ee5b2b38a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7efb5893f41ea89f12dc9c111325a490" ns3:_="">
-    <xsd:import namespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
+    <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
+    <xsd:import namespace="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3222,57 +4288,91 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="49c1c420-9681-49d8-b218-968a87430846" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5bce90d6-5a2c-47e0-8337-aac7acda0e97" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="14" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eb87e36b-823b-4123-a7f7-e23d77fa1380" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3375,45 +4475,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5344EE99-1643-4771-92DD-8E498C06ACE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3430,6 +4524,7 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata6feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata7feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DFAD3C-0BF3-4874-BD7C-C2FD57779869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D682D6A0-C978-4A9F-BD33-E0035FAC203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="OverstayReportSubmission" sheetId="7" r:id="rId7"/>
     <sheet name="FolioPlacement" sheetId="8" r:id="rId8"/>
     <sheet name="FolioChildLocationContactLogs" sheetId="9" r:id="rId9"/>
-    <sheet name="ProviderSearch" sheetId="10" r:id="rId10"/>
-    <sheet name="ProviderOptions" sheetId="11" r:id="rId11"/>
-    <sheet name="FolioTask" sheetId="13" r:id="rId12"/>
-    <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId13"/>
-    <sheet name="FolioBackgroundChecks" sheetId="15" r:id="rId14"/>
-    <sheet name="PlacementStability" sheetId="16" r:id="rId15"/>
+    <sheet name="FolioProviderSearch" sheetId="10" r:id="rId10"/>
+    <sheet name="ProviderOptionsDocuments" sheetId="17" r:id="rId11"/>
+    <sheet name="ProviderOptions" sheetId="11" r:id="rId12"/>
+    <sheet name="FolioTask" sheetId="13" r:id="rId13"/>
+    <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId14"/>
+    <sheet name="FolioBackgroundChecks" sheetId="15" r:id="rId15"/>
+    <sheet name="PlacementStability" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="279">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -496,9 +497,6 @@
     <t>ELIGIBILITY_TAB</t>
   </si>
   <si>
-    <t>PRIMARY_REASON</t>
-  </si>
-  <si>
     <t>County Agency/Staff Worker</t>
   </si>
   <si>
@@ -803,6 +801,93 @@
   </si>
   <si>
     <t>NEW_CONTACT_LOG</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SERVICE_NAME_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>COUNTRY_VALUE</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>SERVICE_RANKING_TITLE_IVE_CLEARING_HOUSE</t>
+  </si>
+  <si>
+    <t>SERVICE_RANKING_CEBC</t>
+  </si>
+  <si>
+    <t>MINIMUM_AGE</t>
+  </si>
+  <si>
+    <t>MAXIMUM_AGE</t>
+  </si>
+  <si>
+    <t>MANUALLY_CREATE_PLACEMENT</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NAME_AGAIN</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>Placement</t>
+  </si>
+  <si>
+    <t>Case Summary</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
+  </si>
+  <si>
+    <t>Qualified Individual Assessment Report</t>
+  </si>
+  <si>
+    <t>QIASSESSMENTDETERMINATIONDATE</t>
+  </si>
+  <si>
+    <t>DATE_OF_REPORTED_INSTABILITY</t>
+  </si>
+  <si>
+    <t>past14days</t>
+  </si>
+  <si>
+    <t>PRIMARY_REASON_FOR_REMOVAL</t>
+  </si>
+  <si>
+    <t>PERSON_WHO_LIVED_WITH_THE_CHILD_AT_ANY_POINT</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION_STATUS</t>
   </si>
 </sst>
 </file>
@@ -893,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -902,12 +987,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,7 +1329,7 @@
     <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>276</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -1272,25 +1361,31 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1330,10 +1425,10 @@
         <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>40</v>
@@ -1350,11 +1445,17 @@
       <c r="O3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1380,10 +1481,10 @@
         <v>12</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>40</v>
@@ -1401,57 +1502,69 @@
         <v>40</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>5</v>
+      <c r="I5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1461,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1478,18 +1591,26 @@
     <col min="9" max="9" width="42.81640625" customWidth="1"/>
     <col min="10" max="10" width="45.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.90625" customWidth="1"/>
-    <col min="12" max="12" width="17.36328125" customWidth="1"/>
-    <col min="13" max="13" width="23.7265625" customWidth="1"/>
-    <col min="14" max="14" width="19.54296875" customWidth="1"/>
-    <col min="15" max="15" width="27.54296875" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="21.36328125" customWidth="1"/>
-    <col min="18" max="20" width="31" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" customWidth="1"/>
+    <col min="14" max="14" width="27.54296875" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="21.36328125" customWidth="1"/>
+    <col min="17" max="20" width="31" customWidth="1"/>
     <col min="21" max="22" width="21.36328125" customWidth="1"/>
     <col min="23" max="23" width="9.90625" customWidth="1"/>
+    <col min="27" max="27" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="42" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -1509,22 +1630,22 @@
         <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
         <v>167</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>168</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>169</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
       </c>
       <c r="M1" t="s">
         <v>170</v>
@@ -1539,16 +1660,16 @@
         <v>173</v>
       </c>
       <c r="Q1" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="S1" t="s">
         <v>67</v>
       </c>
       <c r="T1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U1" t="s">
         <v>69</v>
@@ -1560,21 +1681,48 @@
         <v>26</v>
       </c>
       <c r="X1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z1" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>173</v>
       </c>
-      <c r="AA1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1598,23 +1746,23 @@
         <v>40</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>34</v>
+      <c r="L2" s="5">
+        <v>1234567890</v>
       </c>
       <c r="M2" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="N2" s="5">
         <v>4</v>
       </c>
+      <c r="N2" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="O2" s="5" t="s">
         <v>40</v>
       </c>
@@ -1622,10 +1770,10 @@
         <v>40</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>5</v>
@@ -1645,10 +1793,37 @@
       <c r="AA2" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AB2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1672,23 +1847,23 @@
         <v>40</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>34</v>
+      <c r="L3" s="5">
+        <v>1234567890</v>
       </c>
       <c r="M3" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="N3" s="5">
         <v>4</v>
       </c>
+      <c r="N3" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="O3" s="5" t="s">
         <v>40</v>
       </c>
@@ -1696,10 +1871,10 @@
         <v>40</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>5</v>
@@ -1719,10 +1894,37 @@
       <c r="AA3" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AB3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1746,23 +1948,23 @@
         <v>40</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>34</v>
+      <c r="L4" s="5">
+        <v>1234567890</v>
       </c>
       <c r="M4" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="N4" s="5">
         <v>4</v>
       </c>
+      <c r="N4" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="O4" s="5" t="s">
         <v>40</v>
       </c>
@@ -1770,10 +1972,10 @@
         <v>40</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>5</v>
@@ -1793,8 +1995,35 @@
       <c r="AA4" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="AB4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1808,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>85</v>
@@ -1816,147 +2045,201 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="T5" s="10">
+        <v>97818</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="3">
-        <v>1234567890</v>
-      </c>
-      <c r="N5" s="3">
-        <v>4</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="3" t="s">
+      <c r="L6" s="11">
+        <v>1234512345</v>
+      </c>
+      <c r="M6" s="11">
+        <v>10</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="T5" s="11">
+      <c r="R6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="T6" s="11">
         <v>97818</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="12">
-        <v>1234512345</v>
-      </c>
-      <c r="N6" s="12">
-        <v>10</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="T6" s="12">
-        <v>97818</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA6" s="12" t="s">
+      <c r="U6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1967,11 +2250,141 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD748B5-5EB5-4EF0-88DC-9D96EA72FC2E}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1993,7 +2406,7 @@
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2004,57 +2417,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
         <v>179</v>
       </c>
-      <c r="E1" t="s">
-        <v>180</v>
-      </c>
       <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" t="s">
         <v>183</v>
       </c>
-      <c r="G1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>186</v>
-      </c>
-      <c r="N1" t="s">
-        <v>187</v>
       </c>
       <c r="O1" t="s">
         <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R1" t="s">
         <v>228</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>229</v>
       </c>
-      <c r="S1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="T1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2072,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>40</v>
@@ -2090,14 +2506,14 @@
         <v>40</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>40</v>
@@ -2108,10 +2524,13 @@
       <c r="S2" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="T2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -2135,7 +2554,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>88</v>
@@ -2147,7 +2566,7 @@
         <v>40</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
@@ -2165,10 +2584,13 @@
       <c r="S3" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="T3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -2186,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>5</v>
@@ -2211,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>40</v>
@@ -2222,90 +2644,126 @@
       <c r="S4" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="T4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>188</v>
+      <c r="K5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="P5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R6" s="12" t="s">
+      <c r="M6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="12" t="s">
-        <v>5</v>
+      <c r="S6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2313,11 +2771,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBBE227-DCC5-48BC-8CD6-8D6686056BE6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2354,13 +2812,13 @@
         <v>100</v>
       </c>
       <c r="H1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" t="s">
         <v>195</v>
       </c>
-      <c r="I1" t="s">
-        <v>196</v>
-      </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
@@ -2368,7 +2826,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2380,13 +2838,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>9</v>
@@ -2406,7 +2864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2427,13 +2885,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
         <v>212</v>
       </c>
-      <c r="E1" t="s">
-        <v>213</v>
-      </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -2441,7 +2899,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2456,7 +2914,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -2467,7 +2925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8FE77-C3BE-4FCC-BDC3-CBFF12CA4394}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2488,25 +2946,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" t="s">
         <v>216</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>217</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>218</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>219</v>
-      </c>
-      <c r="J1" t="s">
-        <v>220</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
@@ -2514,7 +2972,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2529,19 +2987,19 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>5</v>
@@ -2552,12 +3010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CE0F8-01F6-451D-9145-49AB2539A028}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2573,56 +3031,56 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2635,7 +3093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
@@ -2714,7 +3172,7 @@
         <v>27</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>28</v>
@@ -2735,28 +3193,28 @@
         <v>33</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -2832,7 +3290,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>35</v>
@@ -2860,7 +3318,7 @@
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>5</v>
@@ -2874,7 +3332,7 @@
     </row>
     <row r="4" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -2925,110 +3383,110 @@
         <v>5</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="12" t="s">
+    <row r="5" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="12" t="s">
+      <c r="Q5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AA5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AB5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AC5" s="12" t="s">
+      <c r="AC5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="12" t="s">
+      <c r="AD5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AE5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AF5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AG5" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3039,10 +3497,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3094,16 +3552,16 @@
         <v>27</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -3145,57 +3603,116 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="M3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="P3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="P3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" t="s">
-        <v>156</v>
-      </c>
-      <c r="S3" t="s">
-        <v>5</v>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3726,7 @@
   <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AK4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3469,7 +3986,7 @@
         <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L3" t="s">
         <v>40</v>
@@ -3540,7 +4057,7 @@
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L4" t="s">
         <v>40</v>
@@ -3591,8 +4108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Z3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3671,7 +4188,7 @@
         <v>101</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>27</v>
@@ -3807,7 +4324,13 @@
         <v>111</v>
       </c>
       <c r="S3" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4011,15 +4534,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4030,19 +4553,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
@@ -4060,7 +4583,7 @@
         <v>115</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>116</v>
@@ -4084,7 +4607,7 @@
         <v>122</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>26</v>
@@ -4152,8 +4675,11 @@
       <c r="AR1" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AS1" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4166,81 +4692,87 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="AS2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="11" t="s">
+      <c r="W3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4250,15 +4782,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -4475,6 +4998,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4486,14 +5018,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4508,6 +5032,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata7feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D682D6A0-C978-4A9F-BD33-E0035FAC203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C114837-F02F-442E-9E14-9A215910CD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="10" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,15 @@
     <sheet name="RecordAlertsAndTasks" sheetId="14" r:id="rId14"/>
     <sheet name="FolioBackgroundChecks" sheetId="15" r:id="rId15"/>
     <sheet name="PlacementStability" sheetId="16" r:id="rId16"/>
+    <sheet name="FolioChildLocationOverstayRepo" sheetId="18" r:id="rId17"/>
+    <sheet name="EligibilityDetails" sheetId="19" r:id="rId18"/>
+    <sheet name="ChildSupportEligibilityInfo" sheetId="20" r:id="rId19"/>
+    <sheet name="MediCalEligibilityRequestInfo" sheetId="21" r:id="rId20"/>
+    <sheet name="EligibilityDocuments" sheetId="22" r:id="rId21"/>
+    <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId22"/>
+    <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="344">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -65,6 +72,51 @@
     <t>NEW_BTN</t>
   </si>
   <si>
+    <t>REMOVAL_TAB</t>
+  </si>
+  <si>
+    <t>REMOVAL_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>PRIMARY_REASON_FOR_REMOVAL</t>
+  </si>
+  <si>
+    <t>ENVIRONMENT_AT_REMOVAL</t>
+  </si>
+  <si>
+    <t>REMOVED_FROM</t>
+  </si>
+  <si>
+    <t>REMOVED_BY</t>
+  </si>
+  <si>
+    <t>PERSON_PRESENT_AT_THE_HOME</t>
+  </si>
+  <si>
+    <t>SECONDARY_REASON_FOR_REMOVAL</t>
+  </si>
+  <si>
+    <t>PERSON_WHO_LIVED</t>
+  </si>
+  <si>
+    <t>CHILD_CIRCUMSTANCES</t>
+  </si>
+  <si>
+    <t>FAMILY_CIRCUMSTANCES</t>
+  </si>
+  <si>
+    <t>PERSON_WHO_LIVED_WITH_THE_CHILD_AT_ANY_POINT</t>
+  </si>
+  <si>
+    <t>SAVE_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION_STATUS</t>
+  </si>
+  <si>
+    <t>COUNTY_STAFF</t>
+  </si>
+  <si>
     <t>testPOM</t>
   </si>
   <si>
@@ -74,28 +126,37 @@
     <t>testT4273</t>
   </si>
   <si>
-    <t>REMOVAL_TAB</t>
-  </si>
-  <si>
-    <t>REMOVAL_DATE_AND_TIME</t>
-  </si>
-  <si>
     <t>today</t>
   </si>
   <si>
-    <t>ENVIRONMENT_AT_REMOVAL</t>
-  </si>
-  <si>
     <t>Exploitation</t>
   </si>
   <si>
     <t>Adoptive Placement</t>
   </si>
   <si>
-    <t>REMOVED_FROM</t>
-  </si>
-  <si>
-    <t>REMOVED_BY</t>
+    <t>folioPersonName1</t>
+  </si>
+  <si>
+    <t>County Agency/Staff Worker</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>autoCMworker451 Ccost</t>
+  </si>
+  <si>
+    <t>testT4277</t>
+  </si>
+  <si>
+    <t>Caretaker Absence/Incapacity</t>
+  </si>
+  <si>
+    <t>Justice facility</t>
+  </si>
+  <si>
+    <t>CHILD_LOCATIONS_TAB</t>
   </si>
   <si>
     <t>PLACEMENT_RB</t>
@@ -131,12 +192,12 @@
     <t>ARE_ALL_SIBLINGS_PLACED_TOGETHER</t>
   </si>
   <si>
-    <t>SAVE_BTN</t>
-  </si>
-  <si>
     <t>VIEWALL</t>
   </si>
   <si>
+    <t>CHILD_LOCATION_ID</t>
+  </si>
+  <si>
     <t>CHILD_LOCATION_RECORD</t>
   </si>
   <si>
@@ -155,6 +216,30 @@
     <t>HEADER_END_TIME</t>
   </si>
   <si>
+    <t>QIAPPROVESSTRTPPLACEMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>QIASSESSMENTDETERMINATIONDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCAPPROVALSTATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCOPTIONALNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>IPCAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>DIRECTORNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>DIRECTORAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>COURTAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
     <t>autoName</t>
   </si>
   <si>
@@ -173,12 +258,21 @@
     <t>Placed with All</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>PLACEMENT_NAME1</t>
+  </si>
+  <si>
+    <t>CLO_ID1</t>
+  </si>
+  <si>
+    <t>testT4275</t>
   </si>
   <si>
     <t>STRTP</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>CORRESPONDENCES_TAB</t>
   </si>
   <si>
@@ -206,18 +300,42 @@
     <t>DATETIME_ACKNOWLEDGEMENT</t>
   </si>
   <si>
+    <t>RECIPIENT_STATUS</t>
+  </si>
+  <si>
+    <t>DETAILS_ID</t>
+  </si>
+  <si>
+    <t>DETAILS_RECORD</t>
+  </si>
+  <si>
+    <t>EXEMPTION_ID</t>
+  </si>
+  <si>
+    <t>EXEMPTION_RECORD</t>
+  </si>
+  <si>
     <t>Certified Mail</t>
   </si>
   <si>
     <t>Court Ordered Placement</t>
   </si>
   <si>
-    <t>RECIPIENT_STATUS</t>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>past14days</t>
   </si>
   <si>
     <t>Received</t>
   </si>
   <si>
+    <t>FOL_14DayNoticeID</t>
+  </si>
+  <si>
+    <t>FOL_14DayExemptionID</t>
+  </si>
+  <si>
     <t>ABSENCES_TAB</t>
   </si>
   <si>
@@ -317,7 +435,7 @@
     <t>Newport</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Juvenile Hall</t>
   </si>
   <si>
     <t>PLACEMENT_PRESERVATION_STRATEGY_TAB</t>
@@ -359,6 +477,9 @@
     <t>ASSIGNEE_TYPE</t>
   </si>
   <si>
+    <t>ASSIGNED_TO</t>
+  </si>
+  <si>
     <t>PPS_RECORD</t>
   </si>
   <si>
@@ -389,6 +510,30 @@
     <t>People</t>
   </si>
   <si>
+    <t>CMSUPERVISORCONTRACOSTA</t>
+  </si>
+  <si>
+    <t>PLACEMENT_TAB</t>
+  </si>
+  <si>
+    <t>PLACEMENMT_PREFERENCES_NEEDS_TAB</t>
+  </si>
+  <si>
+    <t>ELIGIBILITY_TAB</t>
+  </si>
+  <si>
+    <t>CONTACT_LOG_TAB</t>
+  </si>
+  <si>
+    <t>NEW_CONTACT_LOG</t>
+  </si>
+  <si>
+    <t>CL_COLLATERAL_RB</t>
+  </si>
+  <si>
+    <t>CL_PLACEMENT_RB</t>
+  </si>
+  <si>
     <t>CONTACT_PURPOSE</t>
   </si>
   <si>
@@ -401,6 +546,9 @@
     <t>CONTACT_START_DATETIME</t>
   </si>
   <si>
+    <t>CONTACT_END_DATETIME</t>
+  </si>
+  <si>
     <t>ON_BEHALF_OF_CHILD</t>
   </si>
   <si>
@@ -422,6 +570,9 @@
     <t>NOTES</t>
   </si>
   <si>
+    <t>DESCRIBE_PLACEMENT_CONCERNS</t>
+  </si>
+  <si>
     <t>CONTACTLOG_TRIBAL_TAB</t>
   </si>
   <si>
@@ -485,72 +636,30 @@
     <t>TOAST_MSG_VERIFY</t>
   </si>
   <si>
-    <t>PLACEMENT_TAB</t>
-  </si>
-  <si>
-    <t>CHILD_LOCATIONS_TAB</t>
-  </si>
-  <si>
-    <t>PLACEMENMT_PREFERENCES_NEEDS_TAB</t>
-  </si>
-  <si>
-    <t>ELIGIBILITY_TAB</t>
-  </si>
-  <si>
-    <t>County Agency/Staff Worker</t>
-  </si>
-  <si>
-    <t>CLO_ID1</t>
-  </si>
-  <si>
-    <t>CHILD_LOCATION_ID</t>
-  </si>
-  <si>
-    <t>DETAILS_ID</t>
-  </si>
-  <si>
-    <t>DETAILS_RECORD</t>
-  </si>
-  <si>
-    <t>EXEMPTION_ID</t>
-  </si>
-  <si>
-    <t>EXEMPTION_RECORD</t>
-  </si>
-  <si>
-    <t>FOL_14DayExemptionID</t>
-  </si>
-  <si>
-    <t>FOL_14DayNoticeID</t>
-  </si>
-  <si>
-    <t>CONTACT_LOG_TAB</t>
-  </si>
-  <si>
-    <t>PERSON_PRESENT_AT_THE_HOME</t>
-  </si>
-  <si>
-    <t>SECONDARY_REASON_FOR_REMOVAL</t>
-  </si>
-  <si>
-    <t>PERSON_WHO_LIVED</t>
-  </si>
-  <si>
-    <t>CHILD_CIRCUMSTANCES</t>
-  </si>
-  <si>
-    <t>FAMILY_CIRCUMSTANCES</t>
-  </si>
-  <si>
-    <t>folioPersonName1</t>
-  </si>
-  <si>
-    <t>testT4275</t>
+    <t>DATE_OF_REPORTED_INSTABILITY</t>
+  </si>
+  <si>
+    <t>Placement Stability</t>
+  </si>
+  <si>
+    <t>folioPersonName2</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>randomText</t>
   </si>
   <si>
     <t>PROVIDER_SEARCH</t>
   </si>
   <si>
+    <t>SEARCH_BTN</t>
+  </si>
+  <si>
+    <t>ASSOCIATE</t>
+  </si>
+  <si>
     <t>PLACEMENT_OPTION_DETERMINEATION_STATUS</t>
   </si>
   <si>
@@ -575,16 +684,103 @@
     <t>ADDRESS_DESCRIPTION</t>
   </si>
   <si>
-    <t>SEARCH_BTN</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ZIP_CODE</t>
+  </si>
+  <si>
+    <t>CREATE_MANUAL</t>
+  </si>
+  <si>
+    <t>SERVICE_NAME_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>COUNTRY_VALUE</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>SERVICE_RANKING_TITLE_IVE_CLEARING_HOUSE</t>
+  </si>
+  <si>
+    <t>SERVICE_RANKING_CEBC</t>
+  </si>
+  <si>
+    <t>MINIMUM_AGE</t>
+  </si>
+  <si>
+    <t>MAXIMUM_AGE</t>
+  </si>
+  <si>
+    <t>MANUALLY_CREATE_PLACEMENT</t>
+  </si>
+  <si>
+    <t>PLACEMENT_NAME_AGAIN</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Group Home(GH)</t>
   </si>
   <si>
     <t>123 1/2 1st Ave Nederland TX 77627</t>
   </si>
   <si>
-    <t>Group Home(GH)</t>
-  </si>
-  <si>
-    <t>Accepted</t>
+    <t>Resource Family Home</t>
+  </si>
+  <si>
+    <t>Tribally Approved Home</t>
+  </si>
+  <si>
+    <t>Short-Term Residential Therapeutic Program (STRTP)</t>
+  </si>
+  <si>
+    <t>Boardman</t>
+  </si>
+  <si>
+    <t>Option Willing to Accept</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>Placement</t>
+  </si>
+  <si>
+    <t>Case Summary</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
+  </si>
+  <si>
+    <t>Qualified Individual Assessment Report</t>
   </si>
   <si>
     <t>PLACEMENT_SERVICE_PROVIDER_OPTIONS</t>
@@ -593,99 +789,66 @@
     <t>PROVIDER_OPTIONS</t>
   </si>
   <si>
+    <t>PLACEMENT_OPTIONS_RECORD</t>
+  </si>
+  <si>
+    <t>EMERGENCY_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PLACEMENT_OPTION_DETERMINATION_STATUS</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED_NO_RB</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED_YES_RB</t>
+  </si>
+  <si>
+    <t>WILL_PLACEMENT_PROCEED</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>OTHER_REASON</t>
+  </si>
+  <si>
     <t>PROVIDER_OPTIONID</t>
   </si>
   <si>
+    <t>TASK_TAB</t>
+  </si>
+  <si>
+    <t>VERIFY_TASK</t>
+  </si>
+  <si>
+    <t>DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>QIASSESSMENTDETERMINATIONDATE</t>
+  </si>
+  <si>
+    <t>Home is unsafe</t>
+  </si>
+  <si>
     <t>ProviderOption_ID1</t>
   </si>
   <si>
-    <t>PLACEMENT_OPTIONS_RECORD</t>
-  </si>
-  <si>
-    <t>EMERGENCY_CHECKBOX</t>
-  </si>
-  <si>
-    <t>PLACEMENT_OPTION_DETERMINATION_STATUS</t>
-  </si>
-  <si>
-    <t>REASON</t>
-  </si>
-  <si>
-    <t>OTHER_REASON</t>
-  </si>
-  <si>
-    <t>Home is unsafe</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED_NO_RB</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED_YES_RB</t>
-  </si>
-  <si>
     <t>Open to Future Placement</t>
   </si>
   <si>
-    <t>Resource Family Home</t>
-  </si>
-  <si>
-    <t>Tribally Approved Home</t>
+    <t>DUE_DATE_AND_TIME</t>
   </si>
   <si>
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>DUE_DATE_AND_TIME</t>
-  </si>
-  <si>
-    <t>ASSIGNED_TO</t>
-  </si>
-  <si>
     <t>Informing notice</t>
   </si>
   <si>
     <t>Mediun</t>
   </si>
   <si>
-    <t>CREATE_MANUAL</t>
-  </si>
-  <si>
-    <t>PLACEMENT_NAME1</t>
-  </si>
-  <si>
-    <t>Placement Stability</t>
-  </si>
-  <si>
-    <t>folioPersonName2</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>randomText</t>
-  </si>
-  <si>
-    <t>CL_COLLATERAL_RB</t>
-  </si>
-  <si>
-    <t>CL_PLACEMENT_RB</t>
-  </si>
-  <si>
-    <t>CONTACT_END_DATETIME</t>
-  </si>
-  <si>
-    <t>DESCRIBE_PLACEMENT_CONCERNS</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>ZIP_CODE</t>
-  </si>
-  <si>
-    <t>Boardman</t>
-  </si>
-  <si>
     <t>RECORD_ALERT_AND_TASK</t>
   </si>
   <si>
@@ -722,66 +885,6 @@
     <t>AutoCase4201 worker 4201</t>
   </si>
   <si>
-    <t>testT4277</t>
-  </si>
-  <si>
-    <t>ASSOCIATE</t>
-  </si>
-  <si>
-    <t>Option Willing to Accept</t>
-  </si>
-  <si>
-    <t>Short-Term Residential Therapeutic Program (STRTP)</t>
-  </si>
-  <si>
-    <t>TASK_TAB</t>
-  </si>
-  <si>
-    <t>VERIFY_TASK</t>
-  </si>
-  <si>
-    <t>DETAILS_TAB</t>
-  </si>
-  <si>
-    <t>WILL_PLACEMENT_PROCEED</t>
-  </si>
-  <si>
-    <t>Caretaker Absence/Incapacity</t>
-  </si>
-  <si>
-    <t>Justice facility</t>
-  </si>
-  <si>
-    <t>QIAPPROVESSTRTPPLACEMENT_VERIFY</t>
-  </si>
-  <si>
-    <t>QIASSESSMENTDETERMINATIONDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>IPCAPPROVALSTATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>IPCOPTIONALNARRATIVE_VERIFY</t>
-  </si>
-  <si>
-    <t>IPCAPPROVALDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>DIRECTORNARRATIVE_VERIFY</t>
-  </si>
-  <si>
-    <t>DIRECTORAPPROVALDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>COURTAPPROVALDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>Juvenile Hall</t>
-  </si>
-  <si>
-    <t>CMSUPERVISORCONTRACOSTA</t>
-  </si>
-  <si>
     <t>PLACEMENT_STABILITY_TAB</t>
   </si>
   <si>
@@ -800,101 +903,200 @@
     <t>DESCRIBE_PLACEMENT_VERIFY</t>
   </si>
   <si>
-    <t>NEW_CONTACT_LOG</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>SERVICE_NAME_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>COUNTRY_VALUE</t>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-  </si>
-  <si>
-    <t>SERVICE_RANKING_TITLE_IVE_CLEARING_HOUSE</t>
-  </si>
-  <si>
-    <t>SERVICE_RANKING_CEBC</t>
-  </si>
-  <si>
-    <t>MINIMUM_AGE</t>
-  </si>
-  <si>
-    <t>MAXIMUM_AGE</t>
-  </si>
-  <si>
-    <t>MANUALLY_CREATE_PLACEMENT</t>
-  </si>
-  <si>
-    <t>PLACEMENT_NAME_AGAIN</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_TAB</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_TYPE</t>
-  </si>
-  <si>
-    <t>DOCUMENT_STATUS</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENT</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>Placement</t>
-  </si>
-  <si>
-    <t>Case Summary</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>testdoc.txt</t>
-  </si>
-  <si>
-    <t>Qualified Individual Assessment Report</t>
-  </si>
-  <si>
-    <t>QIASSESSMENTDETERMINATIONDATE</t>
-  </si>
-  <si>
-    <t>DATE_OF_REPORTED_INSTABILITY</t>
-  </si>
-  <si>
-    <t>past14days</t>
-  </si>
-  <si>
-    <t>PRIMARY_REASON_FOR_REMOVAL</t>
-  </si>
-  <si>
-    <t>PERSON_WHO_LIVED_WITH_THE_CHILD_AT_ANY_POINT</t>
-  </si>
-  <si>
-    <t>DOCUMENTATION_STATUS</t>
+    <t>OVERSTAY_REPORT_TAB</t>
+  </si>
+  <si>
+    <t>CARE_SETTINGS</t>
+  </si>
+  <si>
+    <t>OVERSTAY_REASON</t>
+  </si>
+  <si>
+    <t>STEPS_TAKEN</t>
+  </si>
+  <si>
+    <t>CHILDNAME_VERIFY</t>
+  </si>
+  <si>
+    <t>TYPEOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>NAMEOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESSOFFACILITY_VERIFY</t>
+  </si>
+  <si>
+    <t>FACILITYCONTACTINFORMATION_VERIFY</t>
+  </si>
+  <si>
+    <t>PLACEMENTSTARTDATETIME_VERIFY</t>
+  </si>
+  <si>
+    <t>NUMBEROFDAYS_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEPIENT</t>
+  </si>
+  <si>
+    <t>RECEPIENT_LINK</t>
+  </si>
+  <si>
+    <t>TITLE_IV_AGENCY</t>
+  </si>
+  <si>
+    <t>OVERSTAYREPORTID_VERIFY</t>
+  </si>
+  <si>
+    <t>OVERSTAYREPORTCREATEDDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Crisis Nursery</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>07 Contra Costa</t>
+  </si>
+  <si>
+    <t>NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>BIRTHDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>SEXATBIRTH_VERIFY</t>
+  </si>
+  <si>
+    <t>CL_ADDRESS_VERIFY</t>
+  </si>
+  <si>
+    <t>REMOVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>PLACEMENTDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_CONTINUANCE</t>
+  </si>
+  <si>
+    <t>DATE_REASONABLE_EFFORTS</t>
+  </si>
+  <si>
+    <t>DATE_PLACEMENT_CARE</t>
+  </si>
+  <si>
+    <t>testT4213</t>
+  </si>
+  <si>
+    <t>CSERI_TAB</t>
+  </si>
+  <si>
+    <t>CW51_TAB</t>
+  </si>
+  <si>
+    <t>NAME_OF_PARENT</t>
+  </si>
+  <si>
+    <t>IS_THERE_GOOD_CAUSE_RB</t>
+  </si>
+  <si>
+    <t>REASON_FOR_GOOD_CAUSE_CB</t>
+  </si>
+  <si>
+    <t>CP_IDENTIFIED_PARENT_NAME</t>
+  </si>
+  <si>
+    <t>Yes - Do Not Refer for Child Support</t>
+  </si>
+  <si>
+    <t>Parents' annual income is less than $100,000 or 400% of the federal poverty level</t>
+  </si>
+  <si>
+    <t>MERI_TAB</t>
+  </si>
+  <si>
+    <t>MC250_TAB</t>
+  </si>
+  <si>
+    <t>MED_APPLICATION_TYPE</t>
+  </si>
+  <si>
+    <t>CHILD_UNDER_INSTITUTION_CODE_602</t>
+  </si>
+  <si>
+    <t>MONTHLY_AMT_PAID</t>
+  </si>
+  <si>
+    <t>DATE_OF_PLACEMENT</t>
+  </si>
+  <si>
+    <t>SSI_SSP_APPLICATION</t>
+  </si>
+  <si>
+    <t>Redetermination</t>
+  </si>
+  <si>
+    <t>autoNumber</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_NEWBTN</t>
+  </si>
+  <si>
+    <t>Extended Foster Care</t>
+  </si>
+  <si>
+    <t>TILP</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>HOME_OF_REMOVAL_TAB</t>
+  </si>
+  <si>
+    <t>PARENT_LG_IC_NAME</t>
+  </si>
+  <si>
+    <t>SIBLING_NAME</t>
+  </si>
+  <si>
+    <t>CP_SIBLING_NAME</t>
+  </si>
+  <si>
+    <t>FCERI_TAB</t>
+  </si>
+  <si>
+    <t>SOC158A_TAB</t>
+  </si>
+  <si>
+    <t>FC2_TAB</t>
+  </si>
+  <si>
+    <t>ARC1_TAB</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_VERIFY</t>
+  </si>
+  <si>
+    <t>HEADER_REPORT_ID</t>
+  </si>
+  <si>
+    <t>HEADER_WAIVER_REASON</t>
+  </si>
+  <si>
+    <t>HEADER_WAIVER_DATE</t>
+  </si>
+  <si>
+    <t>Fax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,8 +1135,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -962,6 +1170,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,10 +1213,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1311,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1322,14 +1542,16 @@
     <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,121 +1565,127 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>40</v>
+      <c r="K3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1466,105 +1694,111 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1582,32 +1816,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="22.54296875" customWidth="1"/>
     <col min="9" max="9" width="42.81640625" customWidth="1"/>
     <col min="10" max="10" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.90625" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
     <col min="12" max="12" width="23.7265625" customWidth="1"/>
     <col min="13" max="13" width="19.54296875" customWidth="1"/>
     <col min="14" max="14" width="27.54296875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="21.36328125" customWidth="1"/>
+    <col min="16" max="16" width="21.453125" customWidth="1"/>
     <col min="17" max="20" width="31" customWidth="1"/>
-    <col min="21" max="22" width="21.36328125" customWidth="1"/>
-    <col min="23" max="23" width="9.90625" customWidth="1"/>
+    <col min="21" max="22" width="21.453125" customWidth="1"/>
+    <col min="23" max="23" width="9.81640625" customWidth="1"/>
     <col min="27" max="27" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="42" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1621,108 +1855,108 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="H1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="L1" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="M1" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="N1" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="O1" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="P1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="Q1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="R1" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="S1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="T1" t="s">
         <v>209</v>
       </c>
       <c r="U1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="V1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="W1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="X1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="Y1" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="Z1" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="AA1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="AB1" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="AC1" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="AD1" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="AE1" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="AF1" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="AG1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="AH1" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="AI1" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="AJ1" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1731,28 +1965,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="L2" s="5">
         <v>1234567890</v>
@@ -1761,69 +1995,69 @@
         <v>4</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1832,28 +2066,28 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="L3" s="5">
         <v>1234567890</v>
@@ -1862,69 +2096,69 @@
         <v>4</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1933,28 +2167,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="L4" s="5">
         <v>1234567890</v>
@@ -1963,284 +2197,284 @@
         <v>4</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>177</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="J5" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1234567890</v>
+      </c>
+      <c r="M5" s="10">
+        <v>4</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1234567890</v>
-      </c>
-      <c r="M5" s="3">
-        <v>4</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>40</v>
+      <c r="U5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1234512345</v>
+      </c>
+      <c r="M6" s="13">
+        <v>10</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1234512345</v>
-      </c>
-      <c r="M6" s="11">
-        <v>10</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="T6" s="11">
+      <c r="T6" s="13">
         <v>97818</v>
       </c>
-      <c r="U6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ6" s="11" t="s">
-        <v>40</v>
+      <c r="U6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2253,20 +2487,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD748B5-5EB5-4EF0-88DC-9D96EA72FC2E}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -2280,98 +2514,98 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>5</v>
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>5</v>
+        <v>236</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="14">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>5</v>
+      <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2391,9 +2625,9 @@
   <cols>
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
     <col min="4" max="4" width="37.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
     <col min="8" max="8" width="41.26953125" customWidth="1"/>
     <col min="9" max="9" width="32.26953125" customWidth="1"/>
     <col min="10" max="10" width="24.54296875" customWidth="1"/>
@@ -2417,60 +2651,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="G1" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="J1" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="K1" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="L1" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="M1" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="N1" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="Q1" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="R1" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="S1" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="T1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2479,58 +2713,58 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -2539,58 +2773,58 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -2599,58 +2833,58 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
@@ -2659,111 +2893,111 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>9</v>
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +3017,7 @@
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
     <col min="8" max="8" width="22.453125" customWidth="1"/>
     <col min="9" max="9" width="12.7265625" customWidth="1"/>
     <col min="10" max="10" width="11.1796875" customWidth="1"/>
@@ -2800,33 +3034,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2835,28 +3069,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2885,21 +3119,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2908,16 +3142,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2946,33 +3180,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="H1" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="J1" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2981,28 +3215,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3015,7 +3249,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3031,30 +3265,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -3063,25 +3297,395 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.1796875" customWidth="1"/>
+    <col min="23" max="23" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C316E44C-FBAD-463F-86B6-F33B8F2E8CC2}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C77F48-D58D-4BE9-8EF7-16F25705B4D8}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3093,24 +3697,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
     <col min="16" max="16" width="16.81640625" customWidth="1"/>
-    <col min="21" max="21" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="32.26953125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="37.453125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="25.1796875" bestFit="1" customWidth="1"/>
@@ -3130,96 +3734,96 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>240</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3228,111 +3832,111 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -3341,153 +3945,489 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>35</v>
+      <c r="A5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9721A606-B232-41A5-81E0-8265FFAEA042}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97D562-9397-4F35-A51E-12A0287432C2}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E1807-763D-4602-8986-AAAB6C22DB0E}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA4FA-04FC-45BE-AB26-997F25A07F93}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3497,15 +4437,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3516,57 +4456,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3575,36 +4527,36 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -3613,52 +4565,64 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="N3" s="10"/>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="Q3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R3" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="S3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3667,52 +4631,64 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3770,106 +4746,106 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -3879,7 +4855,7 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3888,78 +4864,78 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3968,69 +4944,69 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>241</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="T3">
         <v>28570</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AD3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4039,64 +5015,64 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>241</v>
+        <v>125</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="T4">
         <v>28570</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AD4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4143,78 +5119,78 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="N1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4223,54 +5199,54 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="Q2" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="R2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4279,58 +5255,58 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="Q3" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="R3" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="S3" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="T3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4342,11 +5318,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FBC1C-F30A-4BAA-A38E-16F005A3BA7E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -4364,7 +5345,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4373,21 +5354,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4421,7 +5402,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4430,21 +5411,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4473,24 +5454,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4499,33 +5480,33 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4553,135 +5534,135 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4690,15 +5671,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -4707,73 +5688,73 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AS3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4999,15 +5980,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -5015,6 +5987,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5037,26 +6018,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\12febtestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C114837-F02F-442E-9E14-9A215910CD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80346C6-3FAB-4190-B121-9C23AF084670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,11 @@
     <sheet name="EligibilityDocuments" sheetId="22" r:id="rId21"/>
     <sheet name="EligibilityHomeOfRemoval" sheetId="23" r:id="rId22"/>
     <sheet name="FosterCareEligibilityInfo" sheetId="24" r:id="rId23"/>
+    <sheet name="EligibilityTask" sheetId="26" r:id="rId24"/>
+    <sheet name="EligibilityAssignments" sheetId="27" r:id="rId25"/>
+    <sheet name="CommunicationsAndTransactions" sheetId="25" r:id="rId26"/>
+    <sheet name="ChildIncomeAndProperty" sheetId="28" r:id="rId27"/>
+    <sheet name="EligibilityGenerateDocument" sheetId="29" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -58,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="423">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -273,6 +278,9 @@
     <t>No</t>
   </si>
   <si>
+    <t>Folio ChildLocationsSTRTPID</t>
+  </si>
+  <si>
     <t>CORRESPONDENCES_TAB</t>
   </si>
   <si>
@@ -315,6 +323,18 @@
     <t>EXEMPTION_RECORD</t>
   </si>
   <si>
+    <t>HEADER_REPORT_ID</t>
+  </si>
+  <si>
+    <t>HEADER_WAIVER_REASON</t>
+  </si>
+  <si>
+    <t>HEADER_WAIVER_DATE</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_VERIFY</t>
+  </si>
+  <si>
     <t>Certified Mail</t>
   </si>
   <si>
@@ -336,6 +356,9 @@
     <t>FOL_14DayExemptionID</t>
   </si>
   <si>
+    <t>Fax</t>
+  </si>
+  <si>
     <t>ABSENCES_TAB</t>
   </si>
   <si>
@@ -957,6 +980,9 @@
     <t>E-Mail</t>
   </si>
   <si>
+    <t>CMWorkerContraCosta2</t>
+  </si>
+  <si>
     <t>07 Contra Costa</t>
   </si>
   <si>
@@ -1044,6 +1070,54 @@
     <t>DOCUMENTS_NEWBTN</t>
   </si>
   <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>RENAME_DOCUMENT</t>
+  </si>
+  <si>
+    <t>UPDATE_CATEGORY_TYPE</t>
+  </si>
+  <si>
+    <t>UPDATE_STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD_NEW_VERSION</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>TITLE_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENTTYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACT_METHOD_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_SENT_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_VERIFY</t>
+  </si>
+  <si>
     <t>Extended Foster Care</t>
   </si>
   <si>
@@ -1062,6 +1136,15 @@
     <t>SIBLING_NAME</t>
   </si>
   <si>
+    <t>VIEW_ALL_BTN</t>
+  </si>
+  <si>
+    <t>PARENT_ID_LINK</t>
+  </si>
+  <si>
+    <t>SIBLING_ID_LINK</t>
+  </si>
+  <si>
     <t>CP_SIBLING_NAME</t>
   </si>
   <si>
@@ -1077,19 +1160,178 @@
     <t>ARC1_TAB</t>
   </si>
   <si>
-    <t>ERROR_MSG_VERIFY</t>
-  </si>
-  <si>
-    <t>HEADER_REPORT_ID</t>
-  </si>
-  <si>
-    <t>HEADER_WAIVER_REASON</t>
-  </si>
-  <si>
-    <t>HEADER_WAIVER_DATE</t>
-  </si>
-  <si>
-    <t>Fax</t>
+    <t>PLACEMENT_TERMINATION_DATE</t>
+  </si>
+  <si>
+    <t>TRANSFERRING_OUT_COUNTY</t>
+  </si>
+  <si>
+    <t>TRANSFERRING_IN_COUNTY</t>
+  </si>
+  <si>
+    <t>REASON_FOR_COMPLETING_FORM</t>
+  </si>
+  <si>
+    <t>PERSON1NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>REMOVAL_REASON_VERIFY</t>
+  </si>
+  <si>
+    <t>REMOVED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>LEGAL_AUTHORITY_CODE_VERIFY</t>
+  </si>
+  <si>
+    <t>PLACEMENT_AUTHORITY_STARTDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATIVE_CAREGIVER_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATIONSHIP_TO_CAREGIVER_VERIFY</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>RECORDALERTS_AND_TASKSTAB</t>
+  </si>
+  <si>
+    <t>DROPDOWN_MENU_BTN</t>
+  </si>
+  <si>
+    <t>DUE_DATE</t>
+  </si>
+  <si>
+    <t>ASSIGNNED_TO_CLEAR_BTN</t>
+  </si>
+  <si>
+    <t>MARK_COMPLETE_BTN</t>
+  </si>
+  <si>
+    <t>ASSIGNMENTS_TAB</t>
+  </si>
+  <si>
+    <t>PRIMARY_ASSIGNMENTID_LINK</t>
+  </si>
+  <si>
+    <t>SECONDARY_ASSIGNMENTID_LINK</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSIGNEE_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>WORKER_ROLE_VERIFY</t>
+  </si>
+  <si>
+    <t>START_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>END_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>COMMUNICATIONS_TRANSACTIONS_TAB</t>
+  </si>
+  <si>
+    <t>TO_CALSAWS_TAB</t>
+  </si>
+  <si>
+    <t>FROM_CALSAWS_TAB</t>
+  </si>
+  <si>
+    <t>REQUEST_FOR_INFO_CATEGORIES</t>
+  </si>
+  <si>
+    <t>COMMUNICATION_CONTENT</t>
+  </si>
+  <si>
+    <t>CARES_TRANSACTION_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>CARES_TRANSACTION_STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>COMMUNICATION_CONTENT_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Child Support Referral Info</t>
+  </si>
+  <si>
+    <t>Good cause determined, or parent’s income is under threshold. Do not refer for Child Support.</t>
+  </si>
+  <si>
+    <t>CHILD_INCOME_PROPERTY_TAB</t>
+  </si>
+  <si>
+    <t>INCOME_TYPE</t>
+  </si>
+  <si>
+    <t>INCOME_SUBTYPE</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>PROPERTY_TYPE</t>
+  </si>
+  <si>
+    <t>PROPERTY_SUBTYPE</t>
+  </si>
+  <si>
+    <t>CURRENT_VALUE</t>
+  </si>
+  <si>
+    <t>Child Support Income</t>
+  </si>
+  <si>
+    <t>Child Support - Direct</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Cash on Hand</t>
+  </si>
+  <si>
+    <t>auotNumber</t>
+  </si>
+  <si>
+    <t>GENERATE_DOCUMENT_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>GENERATE_BTN</t>
+  </si>
+  <si>
+    <t>ARC 2</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -1533,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:K24"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1810,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1855,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -1864,94 +2106,94 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="R1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="S1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="T1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="U1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="V1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
       </c>
       <c r="X1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Y1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Z1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AA1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AB1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AC1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AD1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AE1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AF1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AG1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AH1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AI1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AJ1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1971,7 +2213,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -1980,10 +2222,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2004,7 +2246,7 @@
         <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>27</v>
@@ -2072,7 +2314,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -2081,10 +2323,10 @@
         <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2105,7 +2347,7 @@
         <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>27</v>
@@ -2173,7 +2415,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>20</v>
@@ -2182,10 +2424,10 @@
         <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>60</v>
@@ -2206,7 +2448,7 @@
         <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>27</v>
@@ -2274,7 +2516,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
@@ -2283,10 +2525,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -2307,13 +2549,13 @@
         <v>27</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -2384,7 +2626,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>20</v>
@@ -2393,10 +2635,10 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>60</v>
@@ -2417,13 +2659,13 @@
         <v>27</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -2514,28 +2756,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2555,19 +2797,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
@@ -2590,19 +2832,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -2651,55 +2893,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="R1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="S1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="T1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -2722,7 +2964,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>27</v>
@@ -2740,14 +2982,14 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -2788,7 +3030,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>70</v>
@@ -2800,7 +3042,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
@@ -2842,7 +3084,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>20</v>
@@ -2867,7 +3109,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -2905,7 +3147,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>70</v>
@@ -2917,7 +3159,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>20</v>
@@ -3034,25 +3276,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3072,13 +3314,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -3119,13 +3361,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -3148,7 +3390,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -3180,25 +3422,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3221,7 +3463,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3230,10 +3472,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3265,22 +3507,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3327,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3358,70 +3600,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3441,13 +3683,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>20</v>
@@ -3480,13 +3722,19 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="V2" s="14" t="s">
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3535,31 +3783,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -3567,7 +3815,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3641,19 +3889,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -3661,7 +3909,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3676,13 +3924,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -3697,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3708,6 +3956,7 @@
     <col min="9" max="9" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.1796875" customWidth="1"/>
     <col min="16" max="16" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="32.26953125" bestFit="1" customWidth="1"/>
@@ -4049,7 +4298,7 @@
         <v>27</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="T5" s="13" t="s">
         <v>27</v>
@@ -4132,25 +4381,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="J1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4158,7 +4407,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4173,13 +4422,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4198,13 +4447,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97D562-9397-4F35-A51E-12A0287432C2}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
@@ -4217,9 +4466,25 @@
     <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4230,33 +4495,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="I1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" t="s">
+        <v>338</v>
+      </c>
+      <c r="P1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" t="s">
+        <v>341</v>
+      </c>
+      <c r="S1" t="s">
+        <v>342</v>
+      </c>
+      <c r="T1" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W1" t="s">
+        <v>346</v>
+      </c>
+      <c r="X1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4271,19 +4584,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="H2" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -4296,7 +4609,248 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E1807-763D-4602-8986-AAAB6C22DB0E}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA4FA-04FC-45BE-AB26-997F25A07F93}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" customWidth="1"/>
+    <col min="12" max="12" width="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>368</v>
+      </c>
+      <c r="M1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O1" t="s">
+        <v>371</v>
+      </c>
+      <c r="P1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R1" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>378</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D5545B-C216-48DB-B002-DD3AC7471031}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
@@ -4307,12 +4861,20 @@
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4323,24 +4885,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4348,19 +4931,38 @@
       <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D2" s="15"/>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>334</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4369,12 +4971,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA4FA-04FC-45BE-AB26-997F25A07F93}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAD2C58-96B3-439A-A014-4AEBAB847F74}">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4382,6 +4984,370 @@
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF7199-C80E-48AD-B414-A72E9414218A}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="85.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M1" t="s">
+        <v>401</v>
+      </c>
+      <c r="N1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C235AE-DCD3-4620-83F0-D59746A75C1E}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5470E-94B9-4BA1-BB90-80BAFBD670CD}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -4394,22 +5360,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" t="s">
-        <v>338</v>
+      <c r="D1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4417,16 +5383,16 @@
       <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4439,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4456,34 +5422,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
@@ -4492,28 +5458,28 @@
         <v>44</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>340</v>
+        <v>86</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>341</v>
+        <v>87</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>342</v>
+        <v>88</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>339</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -4536,7 +5502,7 @@
         <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -4545,7 +5511,7 @@
         <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -4577,32 +5543,32 @@
         <v>60</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N3" s="10"/>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q3" t="s">
         <v>20</v>
       </c>
       <c r="R3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S3" t="s">
         <v>20</v>
@@ -4643,7 +5609,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>343</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
@@ -4746,16 +5712,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>35</v>
@@ -4764,64 +5730,64 @@
         <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>16</v>
@@ -4830,22 +5796,22 @@
         <v>44</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -4882,7 +5848,7 @@
         <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>62</v>
@@ -4891,20 +5857,20 @@
         <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
@@ -4916,13 +5882,13 @@
         <v>20</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -4962,7 +5928,7 @@
         <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L3" t="s">
         <v>27</v>
@@ -4971,22 +5937,22 @@
         <v>60</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="T3">
         <v>28570</v>
@@ -4998,7 +5964,7 @@
         <v>20</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AD3" t="s">
         <v>20</v>
@@ -5033,7 +5999,7 @@
         <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
@@ -5042,22 +6008,22 @@
         <v>60</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="T4">
         <v>28570</v>
@@ -5069,7 +6035,7 @@
         <v>20</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AD4" t="s">
         <v>20</v>
@@ -5119,70 +6085,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>51</v>
@@ -5205,13 +6171,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
         <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -5220,7 +6186,7 @@
         <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -5232,16 +6198,16 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="R2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
@@ -5261,13 +6227,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
@@ -5276,7 +6242,7 @@
         <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -5288,19 +6254,19 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="R3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="S3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="T3" t="s">
         <v>20</v>
@@ -5454,16 +6420,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -5534,130 +6500,130 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -5706,7 +6672,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>27</v>
@@ -5721,13 +6687,13 @@
         <v>27</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>27</v>
@@ -5742,7 +6708,7 @@
         <v>27</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>20</v>
@@ -5763,6 +6729,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -5979,26 +6964,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6015,22 +6999,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\12febtestdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80346C6-3FAB-4190-B121-9C23AF084670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C1A5E-6818-48B9-81C7-A53303054F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="27" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="424">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -278,9 +278,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Folio ChildLocationsSTRTPID</t>
-  </si>
-  <si>
     <t>CORRESPONDENCES_TAB</t>
   </si>
   <si>
@@ -458,9 +455,6 @@
     <t>Newport</t>
   </si>
   <si>
-    <t>Juvenile Hall</t>
-  </si>
-  <si>
     <t>PLACEMENT_PRESERVATION_STRATEGY_TAB</t>
   </si>
   <si>
@@ -746,12 +740,6 @@
     <t>Accepted</t>
   </si>
   <si>
-    <t>Group Home(GH)</t>
-  </si>
-  <si>
-    <t>123 1/2 1st Ave Nederland TX 77627</t>
-  </si>
-  <si>
     <t>Resource Family Home</t>
   </si>
   <si>
@@ -1332,6 +1320,21 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Group Home (GH)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Random Text</t>
+  </si>
+  <si>
+    <t>ChildLocationSTRTPID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juvenile Hall </t>
   </si>
 </sst>
 </file>
@@ -1775,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2053,7 +2056,7 @@
   <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2097,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -2106,94 +2109,94 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" t="s">
         <v>204</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>205</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>206</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>207</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>208</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>209</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>210</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>211</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" t="s">
         <v>212</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" t="s">
         <v>213</v>
       </c>
-      <c r="Q1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" t="s">
-        <v>214</v>
-      </c>
-      <c r="S1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" t="s">
-        <v>215</v>
-      </c>
       <c r="U1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" t="s">
         <v>112</v>
-      </c>
-      <c r="V1" t="s">
-        <v>113</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
       </c>
       <c r="X1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC1" t="s">
         <v>216</v>
       </c>
-      <c r="Y1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>217</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>218</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>219</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>220</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>221</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>222</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>223</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2213,7 +2216,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -2222,10 +2225,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>227</v>
+        <v>419</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2246,10 +2249,16 @@
         <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>27</v>
+      <c r="T2" s="5">
+        <v>97818</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>20</v>
@@ -2260,6 +2269,9 @@
       <c r="W2" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="X2" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Y2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2291,7 +2303,7 @@
         <v>27</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AJ2" s="5" t="s">
         <v>27</v>
@@ -2314,7 +2326,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -2323,10 +2335,10 @@
         <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2347,10 +2359,16 @@
         <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>27</v>
+      <c r="T3" s="5">
+        <v>97818</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>20</v>
@@ -2361,6 +2379,9 @@
       <c r="W3" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="X3" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Y3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2392,7 +2413,7 @@
         <v>27</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AJ3" s="5" t="s">
         <v>27</v>
@@ -2415,7 +2436,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>20</v>
@@ -2424,10 +2445,10 @@
         <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>60</v>
@@ -2448,10 +2469,16 @@
         <v>27</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>27</v>
+      <c r="T4" s="5">
+        <v>97818</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>20</v>
@@ -2462,6 +2489,9 @@
       <c r="W4" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="X4" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Y4" s="5" t="s">
         <v>27</v>
       </c>
@@ -2493,7 +2523,7 @@
         <v>27</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AJ4" s="5" t="s">
         <v>27</v>
@@ -2516,7 +2546,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
@@ -2525,10 +2555,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -2549,13 +2579,13 @@
         <v>27</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -2626,7 +2656,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>20</v>
@@ -2635,10 +2665,10 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>60</v>
@@ -2659,13 +2689,13 @@
         <v>27</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -2756,28 +2786,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2797,19 +2827,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
@@ -2832,19 +2862,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>246</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -2859,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2870,16 +2900,18 @@
     <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="27.54296875" customWidth="1"/>
     <col min="7" max="7" width="20.81640625" customWidth="1"/>
-    <col min="8" max="8" width="41.26953125" customWidth="1"/>
+    <col min="8" max="8" width="22.08984375" customWidth="1"/>
     <col min="9" max="9" width="32.26953125" customWidth="1"/>
     <col min="10" max="10" width="24.54296875" customWidth="1"/>
     <col min="11" max="11" width="32.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.26953125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" customWidth="1"/>
     <col min="15" max="15" width="18.26953125" customWidth="1"/>
     <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -2893,55 +2925,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" t="s">
         <v>247</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>248</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>249</v>
       </c>
-      <c r="G1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>250</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>251</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>252</v>
-      </c>
-      <c r="K1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N1" t="s">
-        <v>256</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" t="s">
+        <v>255</v>
+      </c>
+      <c r="S1" t="s">
+        <v>256</v>
+      </c>
+      <c r="T1" t="s">
         <v>257</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>258</v>
-      </c>
-      <c r="R1" t="s">
-        <v>259</v>
-      </c>
-      <c r="S1" t="s">
-        <v>260</v>
-      </c>
-      <c r="T1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -2964,7 +2996,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>27</v>
@@ -2973,23 +3005,25 @@
         <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="N2" s="5"/>
+        <v>420</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>421</v>
+      </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3030,26 +3064,28 @@
         <v>27</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="N3" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="O3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>27</v>
@@ -3084,7 +3120,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>20</v>
@@ -3104,12 +3140,14 @@
       <c r="M4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="O4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -3143,11 +3181,14 @@
       <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>70</v>
@@ -3159,7 +3200,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>20</v>
@@ -3276,25 +3317,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" t="s">
-        <v>145</v>
-      </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3314,13 +3355,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -3344,7 +3385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3361,13 +3402,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -3390,7 +3431,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -3422,25 +3463,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" t="s">
         <v>273</v>
-      </c>
-      <c r="G1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" t="s">
-        <v>277</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3463,7 +3504,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3472,10 +3513,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3491,7 +3532,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3507,22 +3548,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3569,7 +3610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
@@ -3600,70 +3641,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3683,13 +3724,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>20</v>
@@ -3722,10 +3763,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3734,7 +3775,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3783,31 +3824,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -3815,7 +3856,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3889,19 +3930,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H1" t="s">
         <v>317</v>
-      </c>
-      <c r="E1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H1" t="s">
-        <v>321</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -3909,7 +3950,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3924,13 +3965,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -3946,7 +3987,7 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4295,13 +4336,13 @@
         <v>20</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>71</v>
+        <v>422</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U5" s="13" t="s">
         <v>27</v>
@@ -4381,25 +4422,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" t="s">
         <v>326</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>327</v>
-      </c>
-      <c r="G1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J1" t="s">
-        <v>331</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4407,7 +4448,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4422,13 +4463,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4450,7 +4491,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4495,81 +4536,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" t="s">
         <v>234</v>
       </c>
-      <c r="E1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" t="s">
         <v>236</v>
-      </c>
-      <c r="G1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J1" t="s">
-        <v>240</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M1" t="s">
+        <v>332</v>
+      </c>
+      <c r="N1" t="s">
+        <v>333</v>
+      </c>
+      <c r="O1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P1" t="s">
         <v>335</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>336</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>337</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>338</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>339</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>340</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>341</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>342</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>343</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>344</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>345</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>346</v>
-      </c>
-      <c r="X1" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4584,19 +4625,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -4639,33 +4680,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4680,10 +4721,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -4736,57 +4777,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" t="s">
         <v>361</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>362</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>363</v>
-      </c>
-      <c r="G1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J1" t="s">
-        <v>367</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1" t="s">
+        <v>365</v>
+      </c>
+      <c r="N1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P1" t="s">
         <v>368</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>369</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>370</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>371</v>
-      </c>
-      <c r="P1" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>373</v>
-      </c>
-      <c r="R1" t="s">
-        <v>374</v>
-      </c>
-      <c r="S1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4810,16 +4851,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -4885,45 +4926,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L1" t="s">
         <v>143</v>
       </c>
-      <c r="J1" t="s">
-        <v>381</v>
-      </c>
-      <c r="K1" t="s">
-        <v>382</v>
-      </c>
-      <c r="L1" t="s">
-        <v>145</v>
-      </c>
       <c r="M1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4939,13 +4980,13 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" t="s">
         <v>152</v>
-      </c>
-      <c r="H2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" t="s">
-        <v>154</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -4957,7 +4998,7 @@
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -5010,49 +5051,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5151,42 +5192,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5207,10 +5248,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5267,33 +5308,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5305,25 +5346,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J2" t="s">
         <v>412</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>413</v>
-      </c>
-      <c r="G2" t="s">
-        <v>414</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K2" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5335,7 +5376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5470E-94B9-4BA1-BB90-80BAFBD670CD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -5361,21 +5402,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5387,10 +5428,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -5405,11 +5446,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -5422,34 +5467,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
@@ -5458,28 +5503,28 @@
         <v>44</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -5502,7 +5547,7 @@
         <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -5511,7 +5556,7 @@
         <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -5543,32 +5588,32 @@
         <v>60</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>62</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="N3" s="10"/>
       <c r="P3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
         <v>95</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>96</v>
       </c>
       <c r="S3" t="s">
         <v>20</v>
@@ -5609,7 +5654,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
@@ -5667,8 +5712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C6705-F9CD-40A5-ACAC-D4A7573D562F}">
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5712,16 +5757,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>35</v>
@@ -5730,64 +5775,64 @@
         <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>16</v>
@@ -5796,22 +5841,22 @@
         <v>44</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
@@ -5848,7 +5893,7 @@
         <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>62</v>
@@ -5857,20 +5902,20 @@
         <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T2" s="1">
         <v>28570</v>
@@ -5882,13 +5927,13 @@
         <v>20</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -5927,32 +5972,35 @@
       <c r="I3" t="s">
         <v>62</v>
       </c>
-      <c r="K3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="T3">
         <v>28570</v>
@@ -5964,7 +6012,25 @@
         <v>20</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="AD3" t="s">
         <v>20</v>
@@ -5998,32 +6064,35 @@
       <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
-        <v>131</v>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="T4">
         <v>28570</v>
@@ -6035,7 +6104,25 @@
         <v>20</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="AD4" t="s">
         <v>20</v>
@@ -6050,8 +6137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6085,70 +6172,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>51</v>
@@ -6171,13 +6258,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
         <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -6186,7 +6273,7 @@
         <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -6198,16 +6285,16 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" t="s">
         <v>152</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>153</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>154</v>
-      </c>
-      <c r="R2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
@@ -6227,13 +6314,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
@@ -6242,7 +6329,7 @@
         <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -6254,19 +6341,19 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" t="s">
         <v>152</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>154</v>
-      </c>
-      <c r="R3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S3" t="s">
-        <v>156</v>
       </c>
       <c r="T3" t="s">
         <v>20</v>
@@ -6420,16 +6507,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -6483,8 +6570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6500,130 +6587,130 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -6672,7 +6759,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>27</v>
@@ -6687,13 +6774,13 @@
         <v>27</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>27</v>
@@ -6708,7 +6795,7 @@
         <v>27</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>20</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C1A5E-6818-48B9-81C7-A53303054F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771F6DA7-A4C5-43F3-AF7C-EC4332C7999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="27" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -1334,7 +1334,7 @@
     <t>ChildLocationSTRTPID</t>
   </si>
   <si>
-    <t xml:space="preserve">Juvenile Hall </t>
+    <t>Juvenile Hall</t>
   </si>
 </sst>
 </file>
@@ -5376,7 +5376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5470E-94B9-4BA1-BB90-80BAFBD670CD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -5712,8 +5712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C6705-F9CD-40A5-ACAC-D4A7573D562F}">
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6816,25 +6816,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7051,25 +7032,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7086,4 +7068,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771F6DA7-A4C5-43F3-AF7C-EC4332C7999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449ADEC7-49E9-49B1-B17D-226C2A4AF79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="3" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="427">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -455,6 +455,9 @@
     <t>Newport</t>
   </si>
   <si>
+    <t>Juvenile Hall</t>
+  </si>
+  <si>
     <t>PLACEMENT_PRESERVATION_STRATEGY_TAB</t>
   </si>
   <si>
@@ -560,12 +563,6 @@
     <t>CONTACT_STATUS</t>
   </si>
   <si>
-    <t>CONTACT_START_DATETIME</t>
-  </si>
-  <si>
-    <t>CONTACT_END_DATETIME</t>
-  </si>
-  <si>
     <t>ON_BEHALF_OF_CHILD</t>
   </si>
   <si>
@@ -1334,7 +1331,19 @@
     <t>ChildLocationSTRTPID</t>
   </si>
   <si>
-    <t>Juvenile Hall</t>
+    <t>Placement Decision</t>
+  </si>
+  <si>
+    <t>Placement Approval</t>
+  </si>
+  <si>
+    <t>SCROLL_INTO_ELEMENT</t>
+  </si>
+  <si>
+    <t>CONTACT_START_DATE_TIME</t>
+  </si>
+  <si>
+    <t>CONTACT_END_DATE_TIME</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A20B18-3EB2-4CE9-A424-3ADA004F57B4}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J6" workbookViewId="0">
       <selection activeCell="K21" sqref="K21:K24"/>
     </sheetView>
   </sheetViews>
@@ -2055,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172F84-01FD-40DD-9ACF-8772C74CBBAC}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -2100,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -2109,46 +2118,46 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" t="s">
         <v>202</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>203</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>204</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>205</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>206</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>207</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>208</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>209</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>210</v>
-      </c>
-      <c r="P1" t="s">
-        <v>211</v>
       </c>
       <c r="Q1" t="s">
         <v>108</v>
       </c>
       <c r="R1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S1" t="s">
         <v>109</v>
       </c>
       <c r="T1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U1" t="s">
         <v>111</v>
@@ -2160,43 +2169,43 @@
         <v>16</v>
       </c>
       <c r="X1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB1" t="s">
         <v>214</v>
       </c>
-      <c r="Y1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>215</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>216</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>217</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>218</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>219</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>220</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>221</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>222</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2225,10 +2234,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>60</v>
@@ -2255,7 +2264,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T2" s="5">
         <v>97818</v>
@@ -2335,10 +2344,10 @@
         <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
@@ -2365,7 +2374,7 @@
         <v>27</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T3" s="5">
         <v>97818</v>
@@ -2445,10 +2454,10 @@
         <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>60</v>
@@ -2475,7 +2484,7 @@
         <v>27</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T4" s="5">
         <v>97818</v>
@@ -2555,10 +2564,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -2585,7 +2594,7 @@
         <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T5" s="10">
         <v>97818</v>
@@ -2665,10 +2674,10 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>60</v>
@@ -2695,7 +2704,7 @@
         <v>27</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T6" s="13">
         <v>97818</v>
@@ -2786,28 +2795,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2827,19 +2836,19 @@
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
@@ -2862,19 +2871,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>127</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -2887,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C35F53-8A51-4C8D-9A8B-7D93FEB37F81}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2911,10 +2920,11 @@
     <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" customWidth="1"/>
+    <col min="20" max="20" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2925,58 +2935,61 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
         <v>243</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>244</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" t="s">
         <v>245</v>
       </c>
-      <c r="G1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>246</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>247</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>248</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>249</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>250</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>251</v>
-      </c>
-      <c r="N1" t="s">
-        <v>252</v>
       </c>
       <c r="O1" t="s">
         <v>16</v>
       </c>
       <c r="P1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q1" t="s">
         <v>253</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>254</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>255</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>256</v>
       </c>
-      <c r="T1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="U1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>68</v>
       </c>
@@ -3014,16 +3027,16 @@
         <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3037,8 +3050,11 @@
       <c r="T2" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="U2" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -3085,7 +3101,7 @@
         <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>27</v>
@@ -3099,8 +3115,11 @@
       <c r="T3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="U3" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -3120,7 +3139,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>20</v>
@@ -3147,7 +3166,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -3162,7 +3181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -3181,14 +3200,11 @@
       <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>70</v>
@@ -3200,7 +3216,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>20</v>
@@ -3221,7 +3237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
@@ -3281,6 +3297,9 @@
       </c>
       <c r="T6" s="13" t="s">
         <v>22</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3317,25 +3336,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
         <v>261</v>
-      </c>
-      <c r="I1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" t="s">
-        <v>262</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3355,13 +3374,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>22</v>
@@ -3385,7 +3404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E218F76-2457-4682-9FDA-F0EB9FED43E0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3402,13 +3421,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" t="s">
         <v>265</v>
       </c>
-      <c r="E1" t="s">
-        <v>266</v>
-      </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
@@ -3431,7 +3450,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -3463,25 +3482,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" t="s">
         <v>269</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>270</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>271</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>272</v>
-      </c>
-      <c r="J1" t="s">
-        <v>273</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -3504,7 +3523,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -3513,10 +3532,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -3532,7 +3551,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3548,22 +3567,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -3610,7 +3629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECA590-9A22-4BD5-BCB2-3EC3C35EB600}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
@@ -3622,9 +3641,18 @@
     <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.90625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.1796875" customWidth="1"/>
+    <col min="18" max="18" width="22.1796875" customWidth="1"/>
+    <col min="19" max="19" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="35.26953125" bestFit="1" customWidth="1"/>
@@ -3641,43 +3669,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>71</v>
@@ -3689,22 +3717,22 @@
         <v>75</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -3724,7 +3752,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>127</v>
@@ -3763,10 +3791,10 @@
         <v>20</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>300</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>301</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>20</v>
@@ -3775,7 +3803,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X2" s="14" t="s">
         <v>61</v>
@@ -3824,31 +3852,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -3856,7 +3884,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3930,19 +3958,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" t="s">
         <v>313</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>314</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>315</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>316</v>
-      </c>
-      <c r="H1" t="s">
-        <v>317</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -3950,7 +3978,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3965,13 +3993,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
         <v>318</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>319</v>
-      </c>
-      <c r="H2" t="s">
-        <v>320</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -3986,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4187,19 +4215,19 @@
         <v>66</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>64</v>
@@ -4339,7 +4367,7 @@
         <v>20</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T5" s="13" t="s">
         <v>20</v>
@@ -4422,25 +4450,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>322</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>323</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>324</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>325</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>326</v>
-      </c>
-      <c r="J1" t="s">
-        <v>327</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -4448,7 +4476,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4463,13 +4491,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4536,81 +4564,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
         <v>232</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>234</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>235</v>
-      </c>
-      <c r="J1" t="s">
-        <v>236</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" t="s">
         <v>331</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>332</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>333</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>334</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>335</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>336</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>337</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>338</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>339</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>340</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>341</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>342</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>343</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>344</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>345</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4625,19 +4653,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" t="s">
         <v>347</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>348</v>
-      </c>
-      <c r="H2" t="s">
-        <v>349</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -4680,33 +4708,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" t="s">
         <v>351</v>
-      </c>
-      <c r="G1" t="s">
-        <v>352</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1" t="s">
         <v>353</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>354</v>
-      </c>
-      <c r="K1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4721,10 +4749,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -4777,57 +4805,57 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" t="s">
         <v>357</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>358</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>359</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>360</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>361</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>362</v>
-      </c>
-      <c r="J1" t="s">
-        <v>363</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M1" t="s">
         <v>364</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>365</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>366</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>367</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>368</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>369</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>370</v>
-      </c>
-      <c r="S1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4851,16 +4879,16 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J2" t="s">
         <v>372</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>373</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>374</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -4893,9 +4921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D5545B-C216-48DB-B002-DD3AC7471031}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4926,45 +4952,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" t="s">
         <v>375</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" t="s">
         <v>376</v>
       </c>
-      <c r="F1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>377</v>
       </c>
-      <c r="K1" t="s">
-        <v>378</v>
-      </c>
       <c r="L1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -4980,13 +5006,13 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -5051,49 +5077,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>383</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5192,42 +5218,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" t="s">
         <v>390</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>391</v>
-      </c>
-      <c r="F1" t="s">
-        <v>392</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" t="s">
         <v>393</v>
-      </c>
-      <c r="I1" t="s">
-        <v>394</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L1" t="s">
         <v>395</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>396</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>397</v>
-      </c>
-      <c r="N1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5248,10 +5274,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" t="s">
         <v>399</v>
-      </c>
-      <c r="I2" t="s">
-        <v>400</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -5308,33 +5334,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E1" t="s">
         <v>401</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>402</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>403</v>
-      </c>
-      <c r="G1" t="s">
-        <v>404</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J1" t="s">
         <v>405</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>406</v>
-      </c>
-      <c r="K1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5346,25 +5372,25 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" t="s">
         <v>408</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>409</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>410</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>411</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>412</v>
-      </c>
-      <c r="K2" t="s">
-        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -5402,21 +5428,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -5428,10 +5454,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -5446,8 +5472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5712,8 +5738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C6705-F9CD-40A5-ACAC-D4A7573D562F}">
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6068,7 +6094,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>423</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
@@ -6137,8 +6163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6DE345-5981-4970-9C5C-F1AD644E461F}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6172,70 +6198,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>51</v>
@@ -6258,7 +6284,7 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
         <v>62</v>
@@ -6285,16 +6311,16 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
@@ -6314,7 +6340,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>62</v>
@@ -6341,19 +6367,19 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="T3" t="s">
         <v>20</v>
@@ -6507,16 +6533,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -6570,8 +6596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6587,130 +6613,130 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>165</v>
+        <v>425</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -6759,7 +6785,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>27</v>
@@ -6774,28 +6800,28 @@
         <v>27</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>20</v>
@@ -6816,6 +6842,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7032,26 +7077,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7068,22 +7112,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449ADEC7-49E9-49B1-B17D-226C2A4AF79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9427FD3D-2DC2-4EE2-968C-02BEC1CB8F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="428">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1344,6 +1344,9 @@
   </si>
   <si>
     <t>CONTACT_END_DATE_TIME</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_DETAILS_OF_TRANSITION_PLAN</t>
   </si>
 </sst>
 </file>
@@ -4012,10 +4015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4038,7 +4041,7 @@
     <col min="33" max="33" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4138,8 +4141,14 @@
       <c r="AG1" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4185,8 +4194,14 @@
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -4251,8 +4266,14 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
-    </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AH3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -4310,8 +4331,14 @@
       <c r="T4" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AH4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>29</v>
       </c>
@@ -4410,6 +4437,12 @@
       </c>
       <c r="AG5" s="13" t="s">
         <v>61</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6596,7 +6629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873580A6-DFBB-430A-82AD-81E56C2FDCCD}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -6842,25 +6875,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7077,25 +7091,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6BB46B-F7E7-48D6-90C2-4A61A70B85B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7112,4 +7127,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436040E2-87BE-4168-A5A4-24E613AF937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB703D-1CA6-4EA9-A98C-69841A484145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9427FD3D-2DC2-4EE2-968C-02BEC1CB8F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0673038A-5696-477E-B1F4-CF2696A8ADCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
@@ -4017,8 +4017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4230,7 +4230,7 @@
         <v>66</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>22</v>

--- a/Placement.xlsx
+++ b/Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0673038A-5696-477E-B1F4-CF2696A8ADCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C52245F-9D50-4B44-86EC-DE3FE626B5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{6A798F4A-6FDA-48E9-8C70-805806693477}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="1" r:id="rId1"/>
@@ -4017,7 +4017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3274BF-B9FF-4EE0-9505-51C855EF2AA8}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -5505,8 +5505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63298E4D-C85C-4B7C-99AE-7890323C0027}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5644,7 +5644,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>91</v>
@@ -6197,7 +6197,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
